--- a/e61 Projects/Fiscal sustainability/OECD comparison/Expenditure plots.xlsx
+++ b/e61 Projects/Fiscal sustainability/OECD comparison/Expenditure plots.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\TVHENZ\e61 Projects\Fiscal sustainability\Election newsletter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\TVHENZ\e61 Projects\Fiscal sustainability\OECD comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6943E12-1CF1-476C-B7B7-601BED99E4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CAE310-B1A8-47D7-8450-6A4EAA6EEEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="490" yWindow="660" windowWidth="21370" windowHeight="19730" activeTab="2" xr2:uid="{23D87EDF-9DC9-40F8-8A7E-086D026245F5}"/>
+    <workbookView xWindow="16000" yWindow="580" windowWidth="21370" windowHeight="19730" activeTab="3" xr2:uid="{23D87EDF-9DC9-40F8-8A7E-086D026245F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Actuarial exp" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="STIK" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="138">
   <si>
     <t>NGDP</t>
   </si>
@@ -344,16 +345,129 @@
   </si>
   <si>
     <t>GDPD</t>
+  </si>
+  <si>
+    <t>Wages and salaries</t>
+  </si>
+  <si>
+    <t>Income from  unincorporated business (a)</t>
+  </si>
+  <si>
+    <t>Property income and superannuation</t>
+  </si>
+  <si>
+    <t>Government pensions and allowances</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>All households (b)</t>
+  </si>
+  <si>
+    <t>Lone person under 65</t>
+  </si>
+  <si>
+    <t>Lone person  65 and over</t>
+  </si>
+  <si>
+    <t>One parent with dependent children</t>
+  </si>
+  <si>
+    <t>Couple only, reference person under 65</t>
+  </si>
+  <si>
+    <t>Couple only, reference person 65 and over</t>
+  </si>
+  <si>
+    <t>Two adults or more with dependent children</t>
+  </si>
+  <si>
+    <t>Other households</t>
+  </si>
+  <si>
+    <t>15-24</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65 and over</t>
+  </si>
+  <si>
+    <t>Lowest (EDHI)</t>
+  </si>
+  <si>
+    <t>Second (EDHI)</t>
+  </si>
+  <si>
+    <t>Third (EDHI)</t>
+  </si>
+  <si>
+    <t>Fourth (EDHI)</t>
+  </si>
+  <si>
+    <t>Highest (EDHI)</t>
+  </si>
+  <si>
+    <t>Lowest (NW)</t>
+  </si>
+  <si>
+    <t>Second (NW)</t>
+  </si>
+  <si>
+    <t>Third (NW)</t>
+  </si>
+  <si>
+    <t>Fourth (NW)</t>
+  </si>
+  <si>
+    <t>Highest (NW)</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Gross Disposable Income</t>
+  </si>
+  <si>
+    <t>Private Final Consumption</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,16 +488,347 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -391,19 +836,349 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" applyFill="0" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="11" applyFill="0" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="78">
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="21" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="24" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="27" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="30" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="33" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="22" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="25" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1 2" xfId="36" xr:uid="{996A9A3A-5440-4436-B14F-371A3125A5FB}"/>
+    <cellStyle name="60% - Accent2 2" xfId="37" xr:uid="{D2651614-C4DA-4944-9825-01F35925A343}"/>
+    <cellStyle name="60% - Accent3 2" xfId="38" xr:uid="{833BB57A-7BC1-4EA7-BAE1-7E08A53E7035}"/>
+    <cellStyle name="60% - Accent4 2" xfId="39" xr:uid="{CA9E6037-17C1-41A6-A415-2C373244F6EC}"/>
+    <cellStyle name="60% - Accent5 2" xfId="40" xr:uid="{BBE2CA4C-321D-4EE3-8ABF-38CCB718344B}"/>
+    <cellStyle name="60% - Accent6 2" xfId="41" xr:uid="{F697AEF0-1715-4057-9B66-630A4E45732F}"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="26" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="29" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="32" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="10" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="12" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="ColStubs" xfId="42" xr:uid="{41C6D473-902B-444D-AC88-CC0388B6E7CB}"/>
+    <cellStyle name="ColStubsLine" xfId="43" xr:uid="{7D832F44-9F70-4668-8594-CBD54F1E51D4}"/>
+    <cellStyle name="ColStubsLine2" xfId="44" xr:uid="{78916888-8BB0-4053-9C1C-AE1EF45759ED}"/>
+    <cellStyle name="Comma 2" xfId="75" xr:uid="{F516872F-7B01-47E2-8487-FE6EEB1C500D}"/>
+    <cellStyle name="DefaultBold" xfId="45" xr:uid="{79CCD738-F7BB-4E13-9D49-CA6CFCF6A433}"/>
+    <cellStyle name="DefaultBold 2" xfId="46" xr:uid="{2B78F366-3381-4B1C-8EA1-E69E62FF2430}"/>
+    <cellStyle name="DefaultBoldDP1" xfId="47" xr:uid="{4B9E1865-CD75-4EBD-A7A4-CD916ADA4047}"/>
+    <cellStyle name="DefaultBoldDP2" xfId="48" xr:uid="{D1E3CFB2-9701-48DD-9C66-9206E9CDAABD}"/>
+    <cellStyle name="DefaultBoldDP3" xfId="49" xr:uid="{615D9323-1512-4122-A5D7-80EF3F9B343C}"/>
+    <cellStyle name="DefaultBoldDP4" xfId="50" xr:uid="{9DF5D946-5257-4BE2-963D-1A473727072E}"/>
+    <cellStyle name="DefaultBoldDP5" xfId="51" xr:uid="{A48CED19-3692-42A2-9677-47DA226EB245}"/>
+    <cellStyle name="DefaultDP1" xfId="52" xr:uid="{8B4446B7-AF38-400C-AAB6-B779EEF9CE16}"/>
+    <cellStyle name="DefaultDP1 2" xfId="53" xr:uid="{5EB2892D-3A40-4D12-BDB9-F9E72A0BE074}"/>
+    <cellStyle name="DefaultDP2" xfId="54" xr:uid="{09091280-662D-404D-AECF-4D93F930C721}"/>
+    <cellStyle name="DefaultDP3" xfId="55" xr:uid="{BF8C585B-85DE-4990-B93B-A46379566A30}"/>
+    <cellStyle name="DefaultDP4" xfId="56" xr:uid="{07A35B6F-77BC-4940-A841-3323EEE34CCC}"/>
+    <cellStyle name="DefaultDP5" xfId="57" xr:uid="{4681021B-07E6-485F-BEE2-F7B7F1E77925}"/>
+    <cellStyle name="DefaultLeft" xfId="58" xr:uid="{1D84B63A-AFD1-465A-9468-E3B5C23C6257}"/>
+    <cellStyle name="DefaultLeft 2" xfId="59" xr:uid="{3D95444D-4931-4DD1-93F9-ABE9A6EB4ACD}"/>
+    <cellStyle name="DefaultLeftBold" xfId="60" xr:uid="{69B0B95A-42F2-440E-9F3D-5BA6EBE0DA97}"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="61" xr:uid="{43D12BA8-DA79-4830-B02E-B8F54B30D0CE}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="73" xr:uid="{65A0EE4A-A5CE-479A-9560-1A9473F98807}"/>
+    <cellStyle name="Normal 10 2" xfId="77" xr:uid="{CD767005-DD28-4551-89A0-DBD22441F352}"/>
+    <cellStyle name="Normal 18 2" xfId="76" xr:uid="{E3207B9D-2E11-42BE-B703-D7A0CBF67ECB}"/>
+    <cellStyle name="Normal 2" xfId="62" xr:uid="{8F0329DA-0205-4D72-A5C4-7218770C2F44}"/>
+    <cellStyle name="Normal 2 2" xfId="67" xr:uid="{8C49CEB5-E64E-4F7D-8E89-2182B6BACBBD}"/>
+    <cellStyle name="Normal 2 2 15" xfId="74" xr:uid="{6B8A4136-D945-450A-B2CB-7CECADE4DB48}"/>
+    <cellStyle name="Normal 2 3" xfId="71" xr:uid="{648511A0-5093-467E-AEE2-F57B040CEAE3}"/>
+    <cellStyle name="Normal 3" xfId="68" xr:uid="{229C2C1A-A211-4104-B174-61278CE03B55}"/>
+    <cellStyle name="Normal 3 8" xfId="69" xr:uid="{0E01B232-4FFC-4374-A24E-992232442215}"/>
+    <cellStyle name="Normal 4" xfId="70" xr:uid="{9AD387E4-A56B-4C9D-9F03-91019E6B4D2E}"/>
+    <cellStyle name="Normal 5" xfId="35" xr:uid="{CDCAFE86-5EC7-492D-A412-FC979C50D7C9}"/>
+    <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="72" xr:uid="{8F4A7150-79C8-46CF-8B2E-83476F586DC7}"/>
+    <cellStyle name="SheetBoldRow" xfId="63" xr:uid="{F636E18D-6BC5-435C-AC00-6F6B3B03FA48}"/>
+    <cellStyle name="SheetTitle" xfId="64" xr:uid="{A75B8528-CDC6-4E8D-9C28-9AF6DB78844F}"/>
+    <cellStyle name="SheetTitle 2" xfId="65" xr:uid="{D12D3640-4B22-4244-BCDD-4C00A0BA4734}"/>
+    <cellStyle name="Title 2" xfId="66" xr:uid="{96E87082-CF1B-49DA-81A7-41A463B27297}"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4455,7 +5230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C4B7A0-2763-43B1-9647-0C2883167231}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -5289,4 +6064,4949 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77485CF6-9613-432D-8A63-5E033A7C8C95}">
+  <dimension ref="A1:AI61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" t="s">
+        <v>111</v>
+      </c>
+      <c r="S1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" t="s">
+        <v>113</v>
+      </c>
+      <c r="U1" t="s">
+        <v>114</v>
+      </c>
+      <c r="V1" t="s">
+        <v>107</v>
+      </c>
+      <c r="W1" t="s">
+        <v>115</v>
+      </c>
+      <c r="X1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4450965</v>
+      </c>
+      <c r="D2" s="3">
+        <v>646846</v>
+      </c>
+      <c r="E2" s="3">
+        <v>686135</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2065154</v>
+      </c>
+      <c r="G2" s="3">
+        <v>105485</v>
+      </c>
+      <c r="H2" s="3">
+        <v>7954585</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1663419</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1606518</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1565762</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1560514</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1558372</v>
+      </c>
+      <c r="N2" s="3">
+        <v>7954585</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1300897</v>
+      </c>
+      <c r="P2" s="3">
+        <v>851541</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>531542</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1367699</v>
+      </c>
+      <c r="S2" s="3">
+        <v>658056</v>
+      </c>
+      <c r="T2" s="3">
+        <v>2160089</v>
+      </c>
+      <c r="U2" s="3">
+        <v>1084761</v>
+      </c>
+      <c r="V2" s="3">
+        <v>7954584</v>
+      </c>
+      <c r="W2" s="3">
+        <v>361398</v>
+      </c>
+      <c r="X2" s="3">
+        <v>1416748</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>1725179</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>1605971</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>1165816</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>1679473</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>7954585</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>1664300</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>1605698</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>1565917</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>1560643</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>1558027</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>7954585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="3">
+        <v>377482</v>
+      </c>
+      <c r="D3" s="3">
+        <v>49665</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43206</v>
+      </c>
+      <c r="F3" s="3">
+        <v>62952</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3051</v>
+      </c>
+      <c r="H3" s="3">
+        <v>536356</v>
+      </c>
+      <c r="I3" s="3">
+        <v>42389</v>
+      </c>
+      <c r="J3" s="3">
+        <v>69235</v>
+      </c>
+      <c r="K3" s="3">
+        <v>93974</v>
+      </c>
+      <c r="L3" s="3">
+        <v>124871</v>
+      </c>
+      <c r="M3" s="3">
+        <v>205888</v>
+      </c>
+      <c r="N3" s="3">
+        <v>536356</v>
+      </c>
+      <c r="O3" s="3">
+        <v>52871</v>
+      </c>
+      <c r="P3" s="3">
+        <v>21795</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>23469</v>
+      </c>
+      <c r="R3" s="3">
+        <v>110405</v>
+      </c>
+      <c r="S3" s="3">
+        <v>31564</v>
+      </c>
+      <c r="T3" s="3">
+        <v>203710</v>
+      </c>
+      <c r="U3" s="3">
+        <v>92543</v>
+      </c>
+      <c r="V3" s="3">
+        <v>536356</v>
+      </c>
+      <c r="W3" s="3">
+        <v>17378</v>
+      </c>
+      <c r="X3" s="3">
+        <v>97954</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>132034</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>142706</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>81583</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>64701</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>536356</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>64751</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>97777</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>104374</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>112176</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>157278</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>536356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2004</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="3">
+        <v>318865</v>
+      </c>
+      <c r="D4" s="3">
+        <v>39199</v>
+      </c>
+      <c r="E4" s="3">
+        <v>41205</v>
+      </c>
+      <c r="F4" s="3">
+        <v>69175</v>
+      </c>
+      <c r="G4" s="3">
+        <v>6134</v>
+      </c>
+      <c r="H4" s="3">
+        <v>474576</v>
+      </c>
+      <c r="I4" s="3">
+        <v>55035</v>
+      </c>
+      <c r="J4" s="3">
+        <v>75737</v>
+      </c>
+      <c r="K4" s="3">
+        <v>91130</v>
+      </c>
+      <c r="L4" s="3">
+        <v>112375</v>
+      </c>
+      <c r="M4" s="3">
+        <v>140300</v>
+      </c>
+      <c r="N4" s="3">
+        <v>474576</v>
+      </c>
+      <c r="O4" s="3">
+        <v>50604</v>
+      </c>
+      <c r="P4" s="3">
+        <v>22877</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>23615</v>
+      </c>
+      <c r="R4" s="3">
+        <v>97307</v>
+      </c>
+      <c r="S4" s="3">
+        <v>31431</v>
+      </c>
+      <c r="T4" s="3">
+        <v>170333</v>
+      </c>
+      <c r="U4" s="3">
+        <v>78409</v>
+      </c>
+      <c r="V4" s="3">
+        <v>474576</v>
+      </c>
+      <c r="W4" s="3">
+        <v>18801</v>
+      </c>
+      <c r="X4" s="3">
+        <v>85224</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>115784</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>115404</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>74777</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>64585</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>474576</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>65100</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>91805</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>95718</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>100579</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>121375</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>474576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="3">
+        <v>23220</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3603</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4725</v>
+      </c>
+      <c r="F5" s="3">
+        <v>16723</v>
+      </c>
+      <c r="G5">
+        <v>536</v>
+      </c>
+      <c r="H5" s="3">
+        <v>48808</v>
+      </c>
+      <c r="I5" s="3">
+        <v>10038</v>
+      </c>
+      <c r="J5" s="3">
+        <v>12267</v>
+      </c>
+      <c r="K5" s="3">
+        <v>10089</v>
+      </c>
+      <c r="L5" s="3">
+        <v>8739</v>
+      </c>
+      <c r="M5" s="3">
+        <v>7675</v>
+      </c>
+      <c r="N5" s="3">
+        <v>48808</v>
+      </c>
+      <c r="O5" s="3">
+        <v>3168</v>
+      </c>
+      <c r="P5" s="3">
+        <v>5903</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>2356</v>
+      </c>
+      <c r="R5" s="3">
+        <v>6341</v>
+      </c>
+      <c r="S5" s="3">
+        <v>8781</v>
+      </c>
+      <c r="T5" s="3">
+        <v>14511</v>
+      </c>
+      <c r="U5" s="3">
+        <v>7748</v>
+      </c>
+      <c r="V5" s="3">
+        <v>48808</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1492</v>
+      </c>
+      <c r="X5" s="3">
+        <v>6433</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>8798</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>8318</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>6833</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>16935</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>48808</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>8096</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>9468</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>9799</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>10979</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>10466</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>48808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="3">
+        <v>29859</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3782</v>
+      </c>
+      <c r="E6">
+        <v>791</v>
+      </c>
+      <c r="F6" s="3">
+        <v>8330</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1102</v>
+      </c>
+      <c r="H6" s="3">
+        <v>43864</v>
+      </c>
+      <c r="I6" s="3">
+        <v>9794</v>
+      </c>
+      <c r="J6" s="3">
+        <v>9502</v>
+      </c>
+      <c r="K6" s="3">
+        <v>10169</v>
+      </c>
+      <c r="L6" s="3">
+        <v>8645</v>
+      </c>
+      <c r="M6" s="3">
+        <v>5755</v>
+      </c>
+      <c r="N6" s="3">
+        <v>43864</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1157</v>
+      </c>
+      <c r="P6">
+        <v>354</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>7330</v>
+      </c>
+      <c r="R6" s="3">
+        <v>1367</v>
+      </c>
+      <c r="S6">
+        <v>18</v>
+      </c>
+      <c r="T6" s="3">
+        <v>30745</v>
+      </c>
+      <c r="U6" s="3">
+        <v>2894</v>
+      </c>
+      <c r="V6" s="3">
+        <v>43864</v>
+      </c>
+      <c r="W6" s="3">
+        <v>1886</v>
+      </c>
+      <c r="X6" s="3">
+        <v>6998</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>19292</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>12763</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>2306</v>
+      </c>
+      <c r="AB6">
+        <v>619</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>43864</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>11684</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>12302</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>9280</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>6437</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>4161</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>43864</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10994</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1570</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1277</v>
+      </c>
+      <c r="F7" s="3">
+        <v>17404</v>
+      </c>
+      <c r="G7">
+        <v>424</v>
+      </c>
+      <c r="H7" s="3">
+        <v>31668</v>
+      </c>
+      <c r="I7" s="3">
+        <v>11736</v>
+      </c>
+      <c r="J7" s="3">
+        <v>9446</v>
+      </c>
+      <c r="K7" s="3">
+        <v>6089</v>
+      </c>
+      <c r="L7" s="3">
+        <v>3357</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1040</v>
+      </c>
+      <c r="N7" s="3">
+        <v>31668</v>
+      </c>
+      <c r="O7" s="3">
+        <v>3009</v>
+      </c>
+      <c r="P7" s="3">
+        <v>3176</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>4030</v>
+      </c>
+      <c r="R7" s="3">
+        <v>2664</v>
+      </c>
+      <c r="S7" s="3">
+        <v>4225</v>
+      </c>
+      <c r="T7" s="3">
+        <v>10295</v>
+      </c>
+      <c r="U7" s="3">
+        <v>4269</v>
+      </c>
+      <c r="V7" s="3">
+        <v>31668</v>
+      </c>
+      <c r="W7">
+        <v>966</v>
+      </c>
+      <c r="X7" s="3">
+        <v>5132</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>7090</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>4953</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>4778</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>8748</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>31668</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>10275</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>6993</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>6047</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>5248</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>3106</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>31668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f>A2+2</f>
+        <v>2006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4697300</v>
+      </c>
+      <c r="D8" s="3">
+        <v>652527</v>
+      </c>
+      <c r="E8" s="3">
+        <v>720286</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1981257</v>
+      </c>
+      <c r="G8" s="3">
+        <v>109486</v>
+      </c>
+      <c r="H8" s="3">
+        <v>8160856</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1703830</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1647386</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1606026</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1601219</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1602395</v>
+      </c>
+      <c r="N8" s="3">
+        <v>8160856</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1353110</v>
+      </c>
+      <c r="P8" s="3">
+        <v>884783</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>542886</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1372886</v>
+      </c>
+      <c r="S8" s="3">
+        <v>680428</v>
+      </c>
+      <c r="T8" s="3">
+        <v>2151751</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1175013</v>
+      </c>
+      <c r="V8" s="3">
+        <v>8160857</v>
+      </c>
+      <c r="W8" s="3">
+        <v>407371</v>
+      </c>
+      <c r="X8" s="3">
+        <v>1402943</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>1719712</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>1623448</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>1275939</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>1731442</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>8160855</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>1704895</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>1645649</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>1606859</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>1601251</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>1602202</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>8160856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" ref="A9:A72" si="0">A3+2</f>
+        <v>2006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="3">
+        <v>432335</v>
+      </c>
+      <c r="D9" s="3">
+        <v>54018</v>
+      </c>
+      <c r="E9" s="3">
+        <v>55159</v>
+      </c>
+      <c r="F9" s="3">
+        <v>62988</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3801</v>
+      </c>
+      <c r="H9" s="3">
+        <v>608301</v>
+      </c>
+      <c r="I9" s="3">
+        <v>45903</v>
+      </c>
+      <c r="J9" s="3">
+        <v>75804</v>
+      </c>
+      <c r="K9" s="3">
+        <v>106402</v>
+      </c>
+      <c r="L9" s="3">
+        <v>138667</v>
+      </c>
+      <c r="M9" s="3">
+        <v>241526</v>
+      </c>
+      <c r="N9" s="3">
+        <v>608301</v>
+      </c>
+      <c r="O9" s="3">
+        <v>62900</v>
+      </c>
+      <c r="P9" s="3">
+        <v>23566</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>27526</v>
+      </c>
+      <c r="R9" s="3">
+        <v>123236</v>
+      </c>
+      <c r="S9" s="3">
+        <v>35139</v>
+      </c>
+      <c r="T9" s="3">
+        <v>228621</v>
+      </c>
+      <c r="U9" s="3">
+        <v>107312</v>
+      </c>
+      <c r="V9" s="3">
+        <v>608301</v>
+      </c>
+      <c r="W9" s="3">
+        <v>22373</v>
+      </c>
+      <c r="X9" s="3">
+        <v>106455</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>145168</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>159888</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>104969</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>69450</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>608301</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>74263</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>109834</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>113632</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>117957</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>192615</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>608301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="3">
+        <v>365450</v>
+      </c>
+      <c r="D10" s="3">
+        <v>43505</v>
+      </c>
+      <c r="E10" s="3">
+        <v>44874</v>
+      </c>
+      <c r="F10" s="3">
+        <v>75429</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6492</v>
+      </c>
+      <c r="H10" s="3">
+        <v>535751</v>
+      </c>
+      <c r="I10" s="3">
+        <v>63903</v>
+      </c>
+      <c r="J10" s="3">
+        <v>83522</v>
+      </c>
+      <c r="K10" s="3">
+        <v>101568</v>
+      </c>
+      <c r="L10" s="3">
+        <v>125119</v>
+      </c>
+      <c r="M10" s="3">
+        <v>161640</v>
+      </c>
+      <c r="N10" s="3">
+        <v>535751</v>
+      </c>
+      <c r="O10" s="3">
+        <v>56580</v>
+      </c>
+      <c r="P10" s="3">
+        <v>25451</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>26330</v>
+      </c>
+      <c r="R10" s="3">
+        <v>105745</v>
+      </c>
+      <c r="S10" s="3">
+        <v>36662</v>
+      </c>
+      <c r="T10" s="3">
+        <v>192791</v>
+      </c>
+      <c r="U10" s="3">
+        <v>92192</v>
+      </c>
+      <c r="V10" s="3">
+        <v>535751</v>
+      </c>
+      <c r="W10" s="3">
+        <v>20107</v>
+      </c>
+      <c r="X10" s="3">
+        <v>91965</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>125404</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>130543</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>91157</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>76577</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>535751</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>73145</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>101149</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>108833</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>111519</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>141106</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>535751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="3">
+        <v>28028</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4123</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5141</v>
+      </c>
+      <c r="F11" s="3">
+        <v>19957</v>
+      </c>
+      <c r="G11">
+        <v>569</v>
+      </c>
+      <c r="H11" s="3">
+        <v>57819</v>
+      </c>
+      <c r="I11" s="3">
+        <v>11946</v>
+      </c>
+      <c r="J11" s="3">
+        <v>14814</v>
+      </c>
+      <c r="K11" s="3">
+        <v>11711</v>
+      </c>
+      <c r="L11" s="3">
+        <v>10173</v>
+      </c>
+      <c r="M11" s="3">
+        <v>9176</v>
+      </c>
+      <c r="N11" s="3">
+        <v>57819</v>
+      </c>
+      <c r="O11" s="3">
+        <v>3866</v>
+      </c>
+      <c r="P11" s="3">
+        <v>6921</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>2739</v>
+      </c>
+      <c r="R11" s="3">
+        <v>7274</v>
+      </c>
+      <c r="S11" s="3">
+        <v>10557</v>
+      </c>
+      <c r="T11" s="3">
+        <v>16746</v>
+      </c>
+      <c r="U11" s="3">
+        <v>9717</v>
+      </c>
+      <c r="V11" s="3">
+        <v>57819</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1578</v>
+      </c>
+      <c r="X11" s="3">
+        <v>7040</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>10003</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>9954</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>8523</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>20721</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>57819</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>9513</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>10525</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>12128</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>13281</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>12373</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>57819</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="B12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="3">
+        <v>35336</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4013</v>
+      </c>
+      <c r="E12">
+        <v>887</v>
+      </c>
+      <c r="F12" s="3">
+        <v>9113</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1330</v>
+      </c>
+      <c r="H12" s="3">
+        <v>50679</v>
+      </c>
+      <c r="I12" s="3">
+        <v>11670</v>
+      </c>
+      <c r="J12" s="3">
+        <v>11039</v>
+      </c>
+      <c r="K12" s="3">
+        <v>11470</v>
+      </c>
+      <c r="L12" s="3">
+        <v>9559</v>
+      </c>
+      <c r="M12" s="3">
+        <v>6941</v>
+      </c>
+      <c r="N12" s="3">
+        <v>50679</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1342</v>
+      </c>
+      <c r="P12">
+        <v>360</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>8497</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1428</v>
+      </c>
+      <c r="S12">
+        <v>26</v>
+      </c>
+      <c r="T12" s="3">
+        <v>35554</v>
+      </c>
+      <c r="U12" s="3">
+        <v>3472</v>
+      </c>
+      <c r="V12" s="3">
+        <v>50679</v>
+      </c>
+      <c r="W12" s="3">
+        <v>2140</v>
+      </c>
+      <c r="X12" s="3">
+        <v>7689</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>21829</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>15062</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>3085</v>
+      </c>
+      <c r="AB12">
+        <v>874</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>50679</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>13628</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>13529</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>10758</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>7572</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>5192</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>50679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="3">
+        <v>13483</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1818</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1532</v>
+      </c>
+      <c r="F13" s="3">
+        <v>20591</v>
+      </c>
+      <c r="G13">
+        <v>501</v>
+      </c>
+      <c r="H13" s="3">
+        <v>37924</v>
+      </c>
+      <c r="I13" s="3">
+        <v>14019</v>
+      </c>
+      <c r="J13" s="3">
+        <v>11330</v>
+      </c>
+      <c r="K13" s="3">
+        <v>7096</v>
+      </c>
+      <c r="L13" s="3">
+        <v>4032</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1447</v>
+      </c>
+      <c r="N13" s="3">
+        <v>37924</v>
+      </c>
+      <c r="O13" s="3">
+        <v>3716</v>
+      </c>
+      <c r="P13" s="3">
+        <v>3790</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>4650</v>
+      </c>
+      <c r="R13" s="3">
+        <v>2839</v>
+      </c>
+      <c r="S13" s="3">
+        <v>5255</v>
+      </c>
+      <c r="T13" s="3">
+        <v>12253</v>
+      </c>
+      <c r="U13" s="3">
+        <v>5422</v>
+      </c>
+      <c r="V13" s="3">
+        <v>37924</v>
+      </c>
+      <c r="W13" s="3">
+        <v>1058</v>
+      </c>
+      <c r="X13" s="3">
+        <v>5371</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>8419</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>5951</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>5956</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>11169</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>37924</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>12115</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>8084</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>7400</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>6526</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>3799</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>37924</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f>A8+2</f>
+        <v>2008</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5006885</v>
+      </c>
+      <c r="D14" s="3">
+        <v>681856</v>
+      </c>
+      <c r="E14" s="3">
+        <v>699338</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1832678</v>
+      </c>
+      <c r="G14" s="3">
+        <v>107061</v>
+      </c>
+      <c r="H14" s="3">
+        <v>8327818</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1739291</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1677618</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1640660</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1632184</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1638064</v>
+      </c>
+      <c r="N14" s="3">
+        <v>8327817</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1338964</v>
+      </c>
+      <c r="P14" s="3">
+        <v>883872</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>501508</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1432652</v>
+      </c>
+      <c r="S14" s="3">
+        <v>719082</v>
+      </c>
+      <c r="T14" s="3">
+        <v>2229016</v>
+      </c>
+      <c r="U14" s="3">
+        <v>1222726</v>
+      </c>
+      <c r="V14" s="3">
+        <v>8327819</v>
+      </c>
+      <c r="W14" s="3">
+        <v>384108</v>
+      </c>
+      <c r="X14" s="3">
+        <v>1358255</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>1675666</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>1680602</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>1368202</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>1860985</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>8327817</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>1739893</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>1677715</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>1639131</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>1633361</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>1637719</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>8327819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="3">
+        <v>538990</v>
+      </c>
+      <c r="D15" s="3">
+        <v>57462</v>
+      </c>
+      <c r="E15" s="3">
+        <v>58776</v>
+      </c>
+      <c r="F15" s="3">
+        <v>67190</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3511</v>
+      </c>
+      <c r="H15" s="3">
+        <v>725929</v>
+      </c>
+      <c r="I15" s="3">
+        <v>54512</v>
+      </c>
+      <c r="J15" s="3">
+        <v>88773</v>
+      </c>
+      <c r="K15" s="3">
+        <v>124841</v>
+      </c>
+      <c r="L15" s="3">
+        <v>161826</v>
+      </c>
+      <c r="M15" s="3">
+        <v>295976</v>
+      </c>
+      <c r="N15" s="3">
+        <v>725929</v>
+      </c>
+      <c r="O15" s="3">
+        <v>71605</v>
+      </c>
+      <c r="P15" s="3">
+        <v>26426</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>26957</v>
+      </c>
+      <c r="R15" s="3">
+        <v>152069</v>
+      </c>
+      <c r="S15" s="3">
+        <v>44538</v>
+      </c>
+      <c r="T15" s="3">
+        <v>265896</v>
+      </c>
+      <c r="U15" s="3">
+        <v>138438</v>
+      </c>
+      <c r="V15" s="3">
+        <v>725929</v>
+      </c>
+      <c r="W15" s="3">
+        <v>22455</v>
+      </c>
+      <c r="X15" s="3">
+        <v>116696</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>170399</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>189212</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>133062</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>94105</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>725929</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>83536</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>131829</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>139026</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>146101</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>225438</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>725929</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="3">
+        <v>434820</v>
+      </c>
+      <c r="D16" s="3">
+        <v>50438</v>
+      </c>
+      <c r="E16" s="3">
+        <v>50816</v>
+      </c>
+      <c r="F16" s="3">
+        <v>87194</v>
+      </c>
+      <c r="G16" s="3">
+        <v>7170</v>
+      </c>
+      <c r="H16" s="3">
+        <v>630439</v>
+      </c>
+      <c r="I16" s="3">
+        <v>76411</v>
+      </c>
+      <c r="J16" s="3">
+        <v>97452</v>
+      </c>
+      <c r="K16" s="3">
+        <v>118806</v>
+      </c>
+      <c r="L16" s="3">
+        <v>146269</v>
+      </c>
+      <c r="M16" s="3">
+        <v>191500</v>
+      </c>
+      <c r="N16" s="3">
+        <v>630439</v>
+      </c>
+      <c r="O16" s="3">
+        <v>66282</v>
+      </c>
+      <c r="P16" s="3">
+        <v>29235</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>30378</v>
+      </c>
+      <c r="R16" s="3">
+        <v>123647</v>
+      </c>
+      <c r="S16" s="3">
+        <v>43692</v>
+      </c>
+      <c r="T16" s="3">
+        <v>225322</v>
+      </c>
+      <c r="U16" s="3">
+        <v>111883</v>
+      </c>
+      <c r="V16" s="3">
+        <v>630439</v>
+      </c>
+      <c r="W16" s="3">
+        <v>22981</v>
+      </c>
+      <c r="X16" s="3">
+        <v>103972</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>143019</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>153914</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>114183</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>92371</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>630439</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>86394</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>117441</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>129152</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>130474</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>166977</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>630439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="3">
+        <v>32957</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4919</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6328</v>
+      </c>
+      <c r="F17" s="3">
+        <v>23415</v>
+      </c>
+      <c r="G17">
+        <v>702</v>
+      </c>
+      <c r="H17" s="3">
+        <v>68320</v>
+      </c>
+      <c r="I17" s="3">
+        <v>13991</v>
+      </c>
+      <c r="J17" s="3">
+        <v>17251</v>
+      </c>
+      <c r="K17" s="3">
+        <v>13924</v>
+      </c>
+      <c r="L17" s="3">
+        <v>12083</v>
+      </c>
+      <c r="M17" s="3">
+        <v>11072</v>
+      </c>
+      <c r="N17" s="3">
+        <v>68320</v>
+      </c>
+      <c r="O17" s="3">
+        <v>4601</v>
+      </c>
+      <c r="P17" s="3">
+        <v>8160</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>3259</v>
+      </c>
+      <c r="R17" s="3">
+        <v>8734</v>
+      </c>
+      <c r="S17" s="3">
+        <v>12370</v>
+      </c>
+      <c r="T17" s="3">
+        <v>20044</v>
+      </c>
+      <c r="U17" s="3">
+        <v>11151</v>
+      </c>
+      <c r="V17" s="3">
+        <v>68320</v>
+      </c>
+      <c r="W17" s="3">
+        <v>1924</v>
+      </c>
+      <c r="X17" s="3">
+        <v>8739</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>12086</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>11719</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>9834</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>24019</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>68320</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>11197</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>12765</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>13968</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>15483</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>14908</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>68320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="B18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="3">
+        <v>39252</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4665</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1002</v>
+      </c>
+      <c r="F18" s="3">
+        <v>10448</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1450</v>
+      </c>
+      <c r="H18" s="3">
+        <v>56816</v>
+      </c>
+      <c r="I18" s="3">
+        <v>12806</v>
+      </c>
+      <c r="J18" s="3">
+        <v>12273</v>
+      </c>
+      <c r="K18" s="3">
+        <v>12967</v>
+      </c>
+      <c r="L18" s="3">
+        <v>10919</v>
+      </c>
+      <c r="M18" s="3">
+        <v>7851</v>
+      </c>
+      <c r="N18" s="3">
+        <v>56816</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1588</v>
+      </c>
+      <c r="P18">
+        <v>390</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>9494</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1692</v>
+      </c>
+      <c r="S18">
+        <v>29</v>
+      </c>
+      <c r="T18" s="3">
+        <v>39806</v>
+      </c>
+      <c r="U18" s="3">
+        <v>3817</v>
+      </c>
+      <c r="V18" s="3">
+        <v>56816</v>
+      </c>
+      <c r="W18" s="3">
+        <v>2376</v>
+      </c>
+      <c r="X18" s="3">
+        <v>8904</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>24727</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>16713</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>3242</v>
+      </c>
+      <c r="AB18">
+        <v>854</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>56816</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>15125</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>15478</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>11994</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>8379</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>5841</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>56816</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="3">
+        <v>14992</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2070</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1715</v>
+      </c>
+      <c r="F19" s="3">
+        <v>23165</v>
+      </c>
+      <c r="G19">
+        <v>578</v>
+      </c>
+      <c r="H19" s="3">
+        <v>42520</v>
+      </c>
+      <c r="I19" s="3">
+        <v>15691</v>
+      </c>
+      <c r="J19" s="3">
+        <v>12660</v>
+      </c>
+      <c r="K19" s="3">
+        <v>8084</v>
+      </c>
+      <c r="L19" s="3">
+        <v>4523</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1561</v>
+      </c>
+      <c r="N19" s="3">
+        <v>42520</v>
+      </c>
+      <c r="O19" s="3">
+        <v>4144</v>
+      </c>
+      <c r="P19" s="3">
+        <v>4242</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>5298</v>
+      </c>
+      <c r="R19" s="3">
+        <v>3382</v>
+      </c>
+      <c r="S19" s="3">
+        <v>5777</v>
+      </c>
+      <c r="T19" s="3">
+        <v>13778</v>
+      </c>
+      <c r="U19" s="3">
+        <v>5900</v>
+      </c>
+      <c r="V19" s="3">
+        <v>42520</v>
+      </c>
+      <c r="W19" s="3">
+        <v>1238</v>
+      </c>
+      <c r="X19" s="3">
+        <v>6469</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>9478</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>6668</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>6554</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>12113</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>42520</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>13646</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>9198</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>8226</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>7187</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>4263</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>42520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f>A14+2</f>
+        <v>2010</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5153118</v>
+      </c>
+      <c r="D20" s="3">
+        <v>679925</v>
+      </c>
+      <c r="E20" s="3">
+        <v>681438</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2051853</v>
+      </c>
+      <c r="G20" s="3">
+        <v>98522</v>
+      </c>
+      <c r="H20" s="3">
+        <v>8664857</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1812755</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1742728</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1703310</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1699570</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1706495</v>
+      </c>
+      <c r="N20" s="3">
+        <v>8664858</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1393718</v>
+      </c>
+      <c r="P20" s="3">
+        <v>894402</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>538397</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1466973</v>
+      </c>
+      <c r="S20" s="3">
+        <v>743704</v>
+      </c>
+      <c r="T20" s="3">
+        <v>2318985</v>
+      </c>
+      <c r="U20" s="3">
+        <v>1308679</v>
+      </c>
+      <c r="V20" s="3">
+        <v>8664857</v>
+      </c>
+      <c r="W20" s="3">
+        <v>364242</v>
+      </c>
+      <c r="X20" s="3">
+        <v>1420912</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>1746607</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>1727814</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>1480974</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>1924309</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>8664858</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>1812767</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>1742345</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>1704069</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>1698536</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>1707141</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>8664858</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="3">
+        <v>592680</v>
+      </c>
+      <c r="D21" s="3">
+        <v>83424</v>
+      </c>
+      <c r="E21" s="3">
+        <v>63657</v>
+      </c>
+      <c r="F21" s="3">
+        <v>83430</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4056</v>
+      </c>
+      <c r="H21" s="3">
+        <v>827246</v>
+      </c>
+      <c r="I21" s="3">
+        <v>65367</v>
+      </c>
+      <c r="J21" s="3">
+        <v>100761</v>
+      </c>
+      <c r="K21" s="3">
+        <v>137855</v>
+      </c>
+      <c r="L21" s="3">
+        <v>191721</v>
+      </c>
+      <c r="M21" s="3">
+        <v>331542</v>
+      </c>
+      <c r="N21" s="3">
+        <v>827246</v>
+      </c>
+      <c r="O21" s="3">
+        <v>81073</v>
+      </c>
+      <c r="P21" s="3">
+        <v>31564</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>32452</v>
+      </c>
+      <c r="R21" s="3">
+        <v>163385</v>
+      </c>
+      <c r="S21" s="3">
+        <v>51433</v>
+      </c>
+      <c r="T21" s="3">
+        <v>312205</v>
+      </c>
+      <c r="U21" s="3">
+        <v>155135</v>
+      </c>
+      <c r="V21" s="3">
+        <v>827246</v>
+      </c>
+      <c r="W21" s="3">
+        <v>24600</v>
+      </c>
+      <c r="X21" s="3">
+        <v>134239</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>186399</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>212630</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>157516</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>111863</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>827246</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>99999</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>152813</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>155101</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>156372</v>
+      </c>
+      <c r="AH21" s="3">
+        <v>262961</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>827246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="3">
+        <v>475782</v>
+      </c>
+      <c r="D22" s="3">
+        <v>54377</v>
+      </c>
+      <c r="E22" s="3">
+        <v>55101</v>
+      </c>
+      <c r="F22" s="3">
+        <v>94620</v>
+      </c>
+      <c r="G22" s="3">
+        <v>7451</v>
+      </c>
+      <c r="H22" s="3">
+        <v>687331</v>
+      </c>
+      <c r="I22" s="3">
+        <v>85448</v>
+      </c>
+      <c r="J22" s="3">
+        <v>105330</v>
+      </c>
+      <c r="K22" s="3">
+        <v>129167</v>
+      </c>
+      <c r="L22" s="3">
+        <v>158596</v>
+      </c>
+      <c r="M22" s="3">
+        <v>208790</v>
+      </c>
+      <c r="N22" s="3">
+        <v>687331</v>
+      </c>
+      <c r="O22" s="3">
+        <v>71880</v>
+      </c>
+      <c r="P22" s="3">
+        <v>32456</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>32875</v>
+      </c>
+      <c r="R22" s="3">
+        <v>131207</v>
+      </c>
+      <c r="S22" s="3">
+        <v>51604</v>
+      </c>
+      <c r="T22" s="3">
+        <v>243060</v>
+      </c>
+      <c r="U22" s="3">
+        <v>124250</v>
+      </c>
+      <c r="V22" s="3">
+        <v>687331</v>
+      </c>
+      <c r="W22" s="3">
+        <v>24479</v>
+      </c>
+      <c r="X22" s="3">
+        <v>108757</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>150068</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>165417</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>130273</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>108337</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>687331</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>95405</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>126241</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>141625</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>140582</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>183478</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>687331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="3">
+        <v>39371</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5452</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6311</v>
+      </c>
+      <c r="F23" s="3">
+        <v>27697</v>
+      </c>
+      <c r="G23">
+        <v>680</v>
+      </c>
+      <c r="H23" s="3">
+        <v>79510</v>
+      </c>
+      <c r="I23" s="3">
+        <v>16590</v>
+      </c>
+      <c r="J23" s="3">
+        <v>20843</v>
+      </c>
+      <c r="K23" s="3">
+        <v>15781</v>
+      </c>
+      <c r="L23" s="3">
+        <v>13744</v>
+      </c>
+      <c r="M23" s="3">
+        <v>12553</v>
+      </c>
+      <c r="N23" s="3">
+        <v>79510</v>
+      </c>
+      <c r="O23" s="3">
+        <v>5501</v>
+      </c>
+      <c r="P23" s="3">
+        <v>9417</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>3682</v>
+      </c>
+      <c r="R23" s="3">
+        <v>9628</v>
+      </c>
+      <c r="S23" s="3">
+        <v>14754</v>
+      </c>
+      <c r="T23" s="3">
+        <v>22326</v>
+      </c>
+      <c r="U23" s="3">
+        <v>14203</v>
+      </c>
+      <c r="V23" s="3">
+        <v>79510</v>
+      </c>
+      <c r="W23" s="3">
+        <v>1930</v>
+      </c>
+      <c r="X23" s="3">
+        <v>8733</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>13081</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>13837</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>12392</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>29536</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>79510</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>13037</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>13421</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>17550</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>18731</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>16772</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>79510</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="3">
+        <v>49159</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4759</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1112</v>
+      </c>
+      <c r="F24" s="3">
+        <v>11379</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>68309</v>
+      </c>
+      <c r="I24" s="3">
+        <v>16474</v>
+      </c>
+      <c r="J24" s="3">
+        <v>15038</v>
+      </c>
+      <c r="K24" s="3">
+        <v>15009</v>
+      </c>
+      <c r="L24" s="3">
+        <v>12135</v>
+      </c>
+      <c r="M24" s="3">
+        <v>9654</v>
+      </c>
+      <c r="N24" s="3">
+        <v>68309</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1806</v>
+      </c>
+      <c r="P24">
+        <v>425</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>11500</v>
+      </c>
+      <c r="R24" s="3">
+        <v>1648</v>
+      </c>
+      <c r="S24">
+        <v>46</v>
+      </c>
+      <c r="T24" s="3">
+        <v>47969</v>
+      </c>
+      <c r="U24" s="3">
+        <v>4916</v>
+      </c>
+      <c r="V24" s="3">
+        <v>68309</v>
+      </c>
+      <c r="W24" s="3">
+        <v>2878</v>
+      </c>
+      <c r="X24" s="3">
+        <v>9584</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>28547</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>20869</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>4930</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>68309</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>18695</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>17014</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>14632</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>10499</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>7470</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>68309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="3">
+        <v>16744</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2105</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1894</v>
+      </c>
+      <c r="F25" s="3">
+        <v>24562</v>
+      </c>
+      <c r="G25">
+        <v>522</v>
+      </c>
+      <c r="H25" s="3">
+        <v>45828</v>
+      </c>
+      <c r="I25" s="3">
+        <v>17024</v>
+      </c>
+      <c r="J25" s="3">
+        <v>13693</v>
+      </c>
+      <c r="K25" s="3">
+        <v>8244</v>
+      </c>
+      <c r="L25" s="3">
+        <v>4869</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1997</v>
+      </c>
+      <c r="N25" s="3">
+        <v>45828</v>
+      </c>
+      <c r="O25" s="3">
+        <v>4644</v>
+      </c>
+      <c r="P25" s="3">
+        <v>4579</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>5361</v>
+      </c>
+      <c r="R25" s="3">
+        <v>2923</v>
+      </c>
+      <c r="S25" s="3">
+        <v>6628</v>
+      </c>
+      <c r="T25" s="3">
+        <v>14697</v>
+      </c>
+      <c r="U25" s="3">
+        <v>6995</v>
+      </c>
+      <c r="V25" s="3">
+        <v>45828</v>
+      </c>
+      <c r="W25" s="3">
+        <v>1157</v>
+      </c>
+      <c r="X25" s="3">
+        <v>5364</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>10057</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>7210</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>7532</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>14508</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>45828</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>14503</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>9331</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>9121</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>8210</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>4661</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="3">
+        <v>5330698</v>
+      </c>
+      <c r="D26" s="3">
+        <v>646900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>759742</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2075367</v>
+      </c>
+      <c r="G26" s="3">
+        <v>99860</v>
+      </c>
+      <c r="H26" s="3">
+        <v>8912566</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1874640</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1781857</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1751978</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1746180</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1757912</v>
+      </c>
+      <c r="N26" s="3">
+        <v>8912566</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1401306</v>
+      </c>
+      <c r="P26" s="3">
+        <v>959905</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>507383</v>
+      </c>
+      <c r="R26" s="3">
+        <v>1440909</v>
+      </c>
+      <c r="S26" s="3">
+        <v>798491</v>
+      </c>
+      <c r="T26" s="3">
+        <v>2385552</v>
+      </c>
+      <c r="U26" s="3">
+        <v>1419021</v>
+      </c>
+      <c r="V26" s="3">
+        <v>8912567</v>
+      </c>
+      <c r="W26" s="3">
+        <v>365915</v>
+      </c>
+      <c r="X26" s="3">
+        <v>1428198</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>1738488</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>1772671</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>1555895</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>2051398</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>8912565</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>1874438</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>1781712</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>1752149</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>1746914</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>1757352</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>8912564</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="3">
+        <v>682019</v>
+      </c>
+      <c r="D27" s="3">
+        <v>80786</v>
+      </c>
+      <c r="E27" s="3">
+        <v>79822</v>
+      </c>
+      <c r="F27" s="3">
+        <v>93718</v>
+      </c>
+      <c r="G27" s="3">
+        <v>3645</v>
+      </c>
+      <c r="H27" s="3">
+        <v>939989</v>
+      </c>
+      <c r="I27" s="3">
+        <v>70849</v>
+      </c>
+      <c r="J27" s="3">
+        <v>113688</v>
+      </c>
+      <c r="K27" s="3">
+        <v>160500</v>
+      </c>
+      <c r="L27" s="3">
+        <v>214919</v>
+      </c>
+      <c r="M27" s="3">
+        <v>380034</v>
+      </c>
+      <c r="N27" s="3">
+        <v>939989</v>
+      </c>
+      <c r="O27" s="3">
+        <v>88835</v>
+      </c>
+      <c r="P27" s="3">
+        <v>38136</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>35631</v>
+      </c>
+      <c r="R27" s="3">
+        <v>176873</v>
+      </c>
+      <c r="S27" s="3">
+        <v>66024</v>
+      </c>
+      <c r="T27" s="3">
+        <v>345536</v>
+      </c>
+      <c r="U27" s="3">
+        <v>188955</v>
+      </c>
+      <c r="V27" s="3">
+        <v>939989</v>
+      </c>
+      <c r="W27" s="3">
+        <v>27262</v>
+      </c>
+      <c r="X27" s="3">
+        <v>152496</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>206499</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>232700</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>186085</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>134947</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>939989</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>115387</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>172559</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>175473</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>180254</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>296317</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>939989</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="3">
+        <v>530859</v>
+      </c>
+      <c r="D28" s="3">
+        <v>58573</v>
+      </c>
+      <c r="E28" s="3">
+        <v>67521</v>
+      </c>
+      <c r="F28" s="3">
+        <v>99757</v>
+      </c>
+      <c r="G28" s="3">
+        <v>8282</v>
+      </c>
+      <c r="H28" s="3">
+        <v>764992</v>
+      </c>
+      <c r="I28" s="3">
+        <v>94269</v>
+      </c>
+      <c r="J28" s="3">
+        <v>115395</v>
+      </c>
+      <c r="K28" s="3">
+        <v>142844</v>
+      </c>
+      <c r="L28" s="3">
+        <v>174478</v>
+      </c>
+      <c r="M28" s="3">
+        <v>238008</v>
+      </c>
+      <c r="N28" s="3">
+        <v>764992</v>
+      </c>
+      <c r="O28" s="3">
+        <v>76410</v>
+      </c>
+      <c r="P28" s="3">
+        <v>38159</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>35247</v>
+      </c>
+      <c r="R28" s="3">
+        <v>141088</v>
+      </c>
+      <c r="S28" s="3">
+        <v>60180</v>
+      </c>
+      <c r="T28" s="3">
+        <v>275835</v>
+      </c>
+      <c r="U28" s="3">
+        <v>138075</v>
+      </c>
+      <c r="V28" s="3">
+        <v>764992</v>
+      </c>
+      <c r="W28" s="3">
+        <v>24897</v>
+      </c>
+      <c r="X28" s="3">
+        <v>118253</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>162216</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>183883</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>148043</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>127700</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>764992</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>103887</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>138515</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>154503</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>158064</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>210024</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>764992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="3">
+        <v>46820</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5843</v>
+      </c>
+      <c r="E29" s="3">
+        <v>9182</v>
+      </c>
+      <c r="F29" s="3">
+        <v>29654</v>
+      </c>
+      <c r="G29">
+        <v>806</v>
+      </c>
+      <c r="H29" s="3">
+        <v>92304</v>
+      </c>
+      <c r="I29" s="3">
+        <v>19721</v>
+      </c>
+      <c r="J29" s="3">
+        <v>22371</v>
+      </c>
+      <c r="K29" s="3">
+        <v>18683</v>
+      </c>
+      <c r="L29" s="3">
+        <v>16633</v>
+      </c>
+      <c r="M29" s="3">
+        <v>14898</v>
+      </c>
+      <c r="N29" s="3">
+        <v>92304</v>
+      </c>
+      <c r="O29" s="3">
+        <v>5818</v>
+      </c>
+      <c r="P29" s="3">
+        <v>11695</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>3985</v>
+      </c>
+      <c r="R29" s="3">
+        <v>10431</v>
+      </c>
+      <c r="S29" s="3">
+        <v>16833</v>
+      </c>
+      <c r="T29" s="3">
+        <v>26416</v>
+      </c>
+      <c r="U29" s="3">
+        <v>17127</v>
+      </c>
+      <c r="V29" s="3">
+        <v>92304</v>
+      </c>
+      <c r="W29" s="3">
+        <v>2208</v>
+      </c>
+      <c r="X29" s="3">
+        <v>10075</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>14498</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>15475</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>15251</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>34798</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>92304</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>15709</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>15995</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>19952</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>20599</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>20048</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>92304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="B30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="3">
+        <v>56368</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4785</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1519</v>
+      </c>
+      <c r="F30" s="3">
+        <v>12050</v>
+      </c>
+      <c r="G30" s="3">
+        <v>2001</v>
+      </c>
+      <c r="H30" s="3">
+        <v>76723</v>
+      </c>
+      <c r="I30" s="3">
+        <v>18400</v>
+      </c>
+      <c r="J30" s="3">
+        <v>16447</v>
+      </c>
+      <c r="K30" s="3">
+        <v>17995</v>
+      </c>
+      <c r="L30" s="3">
+        <v>13800</v>
+      </c>
+      <c r="M30" s="3">
+        <v>10081</v>
+      </c>
+      <c r="N30" s="3">
+        <v>76723</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1875</v>
+      </c>
+      <c r="P30" s="3">
+        <v>1007</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>11894</v>
+      </c>
+      <c r="R30" s="3">
+        <v>2306</v>
+      </c>
+      <c r="S30">
+        <v>82</v>
+      </c>
+      <c r="T30" s="3">
+        <v>52876</v>
+      </c>
+      <c r="U30" s="3">
+        <v>6683</v>
+      </c>
+      <c r="V30" s="3">
+        <v>76723</v>
+      </c>
+      <c r="W30" s="3">
+        <v>3620</v>
+      </c>
+      <c r="X30" s="3">
+        <v>10872</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>29514</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>24590</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>5805</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>2323</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>76723</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>20554</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>18926</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>17218</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>11138</v>
+      </c>
+      <c r="AH30" s="3">
+        <v>8887</v>
+      </c>
+      <c r="AI30" s="3">
+        <v>76723</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="3">
+        <v>19354</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2528</v>
+      </c>
+      <c r="E31" s="3">
+        <v>3778</v>
+      </c>
+      <c r="F31" s="3">
+        <v>28524</v>
+      </c>
+      <c r="G31">
+        <v>662</v>
+      </c>
+      <c r="H31" s="3">
+        <v>54846</v>
+      </c>
+      <c r="I31" s="3">
+        <v>19732</v>
+      </c>
+      <c r="J31" s="3">
+        <v>15996</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10114</v>
+      </c>
+      <c r="L31" s="3">
+        <v>6087</v>
+      </c>
+      <c r="M31" s="3">
+        <v>2915</v>
+      </c>
+      <c r="N31" s="3">
+        <v>54846</v>
+      </c>
+      <c r="O31" s="3">
+        <v>5816</v>
+      </c>
+      <c r="P31" s="3">
+        <v>6192</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>5430</v>
+      </c>
+      <c r="R31" s="3">
+        <v>3092</v>
+      </c>
+      <c r="S31" s="3">
+        <v>9126</v>
+      </c>
+      <c r="T31" s="3">
+        <v>15964</v>
+      </c>
+      <c r="U31" s="3">
+        <v>9226</v>
+      </c>
+      <c r="V31" s="3">
+        <v>54846</v>
+      </c>
+      <c r="W31" s="3">
+        <v>1221</v>
+      </c>
+      <c r="X31" s="3">
+        <v>6523</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>10458</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>8031</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>8992</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>19623</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>54846</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>17013</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>10252</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>10905</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>9635</v>
+      </c>
+      <c r="AH31" s="3">
+        <v>7041</v>
+      </c>
+      <c r="AI31" s="3">
+        <v>54846</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5330904</v>
+      </c>
+      <c r="D32" s="3">
+        <v>781036</v>
+      </c>
+      <c r="E32" s="3">
+        <v>767743</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2040674</v>
+      </c>
+      <c r="G32" s="3">
+        <v>128226</v>
+      </c>
+      <c r="H32" s="3">
+        <v>9048583</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1901184</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1809037</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1779238</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1773781</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1785343</v>
+      </c>
+      <c r="N32" s="3">
+        <v>9048583</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1378439</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1007162</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>527566</v>
+      </c>
+      <c r="R32" s="3">
+        <v>1438464</v>
+      </c>
+      <c r="S32" s="3">
+        <v>835823</v>
+      </c>
+      <c r="T32" s="3">
+        <v>2485258</v>
+      </c>
+      <c r="U32" s="3">
+        <v>1375871</v>
+      </c>
+      <c r="V32" s="3">
+        <v>9048583</v>
+      </c>
+      <c r="W32" s="3">
+        <v>344377</v>
+      </c>
+      <c r="X32" s="3">
+        <v>1481384</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>1713204</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>1798018</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>1547034</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>2164566</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>9048583</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>1901577</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>1808989</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>1778983</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>1773749</v>
+      </c>
+      <c r="AH32" s="3">
+        <v>1785285</v>
+      </c>
+      <c r="AI32" s="3">
+        <v>9048583</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="3">
+        <v>736641</v>
+      </c>
+      <c r="D33" s="3">
+        <v>91585</v>
+      </c>
+      <c r="E33" s="3">
+        <v>88446</v>
+      </c>
+      <c r="F33" s="3">
+        <v>101505</v>
+      </c>
+      <c r="G33" s="3">
+        <v>4678</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1022855</v>
+      </c>
+      <c r="I33" s="3">
+        <v>77393</v>
+      </c>
+      <c r="J33" s="3">
+        <v>125056</v>
+      </c>
+      <c r="K33" s="3">
+        <v>174306</v>
+      </c>
+      <c r="L33" s="3">
+        <v>227388</v>
+      </c>
+      <c r="M33" s="3">
+        <v>418711</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1022855</v>
+      </c>
+      <c r="O33" s="3">
+        <v>91978</v>
+      </c>
+      <c r="P33" s="3">
+        <v>41904</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>41936</v>
+      </c>
+      <c r="R33" s="3">
+        <v>193394</v>
+      </c>
+      <c r="S33" s="3">
+        <v>74889</v>
+      </c>
+      <c r="T33" s="3">
+        <v>382673</v>
+      </c>
+      <c r="U33" s="3">
+        <v>196081</v>
+      </c>
+      <c r="V33" s="3">
+        <v>1022855</v>
+      </c>
+      <c r="W33" s="3">
+        <v>26002</v>
+      </c>
+      <c r="X33" s="3">
+        <v>165860</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>219453</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>253057</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>203235</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>155249</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>1022855</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>119818</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>190752</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>187891</v>
+      </c>
+      <c r="AG33" s="3">
+        <v>200880</v>
+      </c>
+      <c r="AH33" s="3">
+        <v>323514</v>
+      </c>
+      <c r="AI33" s="3">
+        <v>1022855</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="3">
+        <v>576542</v>
+      </c>
+      <c r="D34" s="3">
+        <v>64150</v>
+      </c>
+      <c r="E34" s="3">
+        <v>78602</v>
+      </c>
+      <c r="F34" s="3">
+        <v>102946</v>
+      </c>
+      <c r="G34" s="3">
+        <v>9039</v>
+      </c>
+      <c r="H34" s="3">
+        <v>831279</v>
+      </c>
+      <c r="I34" s="3">
+        <v>101220</v>
+      </c>
+      <c r="J34" s="3">
+        <v>122518</v>
+      </c>
+      <c r="K34" s="3">
+        <v>153693</v>
+      </c>
+      <c r="L34" s="3">
+        <v>187230</v>
+      </c>
+      <c r="M34" s="3">
+        <v>266618</v>
+      </c>
+      <c r="N34" s="3">
+        <v>831279</v>
+      </c>
+      <c r="O34" s="3">
+        <v>78881</v>
+      </c>
+      <c r="P34" s="3">
+        <v>43505</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>37302</v>
+      </c>
+      <c r="R34" s="3">
+        <v>149152</v>
+      </c>
+      <c r="S34" s="3">
+        <v>69921</v>
+      </c>
+      <c r="T34" s="3">
+        <v>304711</v>
+      </c>
+      <c r="U34" s="3">
+        <v>147807</v>
+      </c>
+      <c r="V34" s="3">
+        <v>831279</v>
+      </c>
+      <c r="W34" s="3">
+        <v>24475</v>
+      </c>
+      <c r="X34" s="3">
+        <v>125361</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>169885</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>198205</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>165841</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>147512</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>831279</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>109952</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>148306</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>163023</v>
+      </c>
+      <c r="AG34" s="3">
+        <v>173500</v>
+      </c>
+      <c r="AH34" s="3">
+        <v>236498</v>
+      </c>
+      <c r="AI34" s="3">
+        <v>831279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="3">
+        <v>50133</v>
+      </c>
+      <c r="D35" s="3">
+        <v>8095</v>
+      </c>
+      <c r="E35" s="3">
+        <v>8445</v>
+      </c>
+      <c r="F35" s="3">
+        <v>31974</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1049</v>
+      </c>
+      <c r="H35" s="3">
+        <v>99695</v>
+      </c>
+      <c r="I35" s="3">
+        <v>20836</v>
+      </c>
+      <c r="J35" s="3">
+        <v>23488</v>
+      </c>
+      <c r="K35" s="3">
+        <v>20519</v>
+      </c>
+      <c r="L35" s="3">
+        <v>18118</v>
+      </c>
+      <c r="M35" s="3">
+        <v>16734</v>
+      </c>
+      <c r="N35" s="3">
+        <v>99695</v>
+      </c>
+      <c r="O35" s="3">
+        <v>6691</v>
+      </c>
+      <c r="P35" s="3">
+        <v>11378</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>4535</v>
+      </c>
+      <c r="R35" s="3">
+        <v>11029</v>
+      </c>
+      <c r="S35" s="3">
+        <v>17989</v>
+      </c>
+      <c r="T35" s="3">
+        <v>29512</v>
+      </c>
+      <c r="U35" s="3">
+        <v>18561</v>
+      </c>
+      <c r="V35" s="3">
+        <v>99695</v>
+      </c>
+      <c r="W35" s="3">
+        <v>2337</v>
+      </c>
+      <c r="X35" s="3">
+        <v>11742</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>15732</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>17100</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>16030</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>36754</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>99695</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>17405</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>18096</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>21260</v>
+      </c>
+      <c r="AG35" s="3">
+        <v>21870</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>21065</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>99695</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="3">
+        <v>60358</v>
+      </c>
+      <c r="D36" s="3">
+        <v>5708</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2037</v>
+      </c>
+      <c r="F36" s="3">
+        <v>12709</v>
+      </c>
+      <c r="G36" s="3">
+        <v>2459</v>
+      </c>
+      <c r="H36" s="3">
+        <v>83270</v>
+      </c>
+      <c r="I36" s="3">
+        <v>19827</v>
+      </c>
+      <c r="J36" s="3">
+        <v>18106</v>
+      </c>
+      <c r="K36" s="3">
+        <v>17560</v>
+      </c>
+      <c r="L36" s="3">
+        <v>14906</v>
+      </c>
+      <c r="M36" s="3">
+        <v>12871</v>
+      </c>
+      <c r="N36" s="3">
+        <v>83270</v>
+      </c>
+      <c r="O36" s="3">
+        <v>2315</v>
+      </c>
+      <c r="P36">
+        <v>541</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>12981</v>
+      </c>
+      <c r="R36" s="3">
+        <v>2527</v>
+      </c>
+      <c r="S36">
+        <v>73</v>
+      </c>
+      <c r="T36" s="3">
+        <v>58631</v>
+      </c>
+      <c r="U36" s="3">
+        <v>6202</v>
+      </c>
+      <c r="V36" s="3">
+        <v>83270</v>
+      </c>
+      <c r="W36" s="3">
+        <v>3434</v>
+      </c>
+      <c r="X36" s="3">
+        <v>12534</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>32598</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>26522</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>6080</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>2103</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>83270</v>
+      </c>
+      <c r="AD36" s="3">
+        <v>21918</v>
+      </c>
+      <c r="AE36" s="3">
+        <v>22305</v>
+      </c>
+      <c r="AF36" s="3">
+        <v>17097</v>
+      </c>
+      <c r="AG36" s="3">
+        <v>12345</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>9604</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>83270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="3">
+        <v>21986</v>
+      </c>
+      <c r="D37" s="3">
+        <v>3867</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3225</v>
+      </c>
+      <c r="F37" s="3">
+        <v>31118</v>
+      </c>
+      <c r="G37">
+        <v>680</v>
+      </c>
+      <c r="H37" s="3">
+        <v>60876</v>
+      </c>
+      <c r="I37" s="3">
+        <v>21538</v>
+      </c>
+      <c r="J37" s="3">
+        <v>17866</v>
+      </c>
+      <c r="K37" s="3">
+        <v>11045</v>
+      </c>
+      <c r="L37" s="3">
+        <v>6868</v>
+      </c>
+      <c r="M37" s="3">
+        <v>3558</v>
+      </c>
+      <c r="N37" s="3">
+        <v>60876</v>
+      </c>
+      <c r="O37" s="3">
+        <v>5694</v>
+      </c>
+      <c r="P37" s="3">
+        <v>7179</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>6698</v>
+      </c>
+      <c r="R37" s="3">
+        <v>2782</v>
+      </c>
+      <c r="S37" s="3">
+        <v>9607</v>
+      </c>
+      <c r="T37" s="3">
+        <v>18619</v>
+      </c>
+      <c r="U37" s="3">
+        <v>10296</v>
+      </c>
+      <c r="V37" s="3">
+        <v>60876</v>
+      </c>
+      <c r="W37" s="3">
+        <v>1456</v>
+      </c>
+      <c r="X37" s="3">
+        <v>8524</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>11830</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>8847</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>8717</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>21502</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>60876</v>
+      </c>
+      <c r="AD37" s="3">
+        <v>19663</v>
+      </c>
+      <c r="AE37" s="3">
+        <v>12705</v>
+      </c>
+      <c r="AF37" s="3">
+        <v>11374</v>
+      </c>
+      <c r="AG37" s="3">
+        <v>10199</v>
+      </c>
+      <c r="AH37" s="3">
+        <v>6934</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>60876</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="B38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5480077</v>
+      </c>
+      <c r="D38" s="3">
+        <v>713785</v>
+      </c>
+      <c r="E38" s="3">
+        <v>847297</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2093801</v>
+      </c>
+      <c r="G38" s="3">
+        <v>111232</v>
+      </c>
+      <c r="H38" s="3">
+        <v>9246191</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1930441</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1863500</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1818957</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1813010</v>
+      </c>
+      <c r="M38" s="3">
+        <v>1820285</v>
+      </c>
+      <c r="N38" s="3">
+        <v>9246191</v>
+      </c>
+      <c r="O38" s="3">
+        <v>1386857</v>
+      </c>
+      <c r="P38" s="3">
+        <v>1059210</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>512309</v>
+      </c>
+      <c r="R38" s="3">
+        <v>1400606</v>
+      </c>
+      <c r="S38" s="3">
+        <v>907562</v>
+      </c>
+      <c r="T38" s="3">
+        <v>2604379</v>
+      </c>
+      <c r="U38" s="3">
+        <v>1375271</v>
+      </c>
+      <c r="V38" s="3">
+        <v>9246192</v>
+      </c>
+      <c r="W38" s="3">
+        <v>320075</v>
+      </c>
+      <c r="X38" s="3">
+        <v>1478620</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>1714803</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>1804613</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>1600203</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>2327876</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>9246190</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>1930749</v>
+      </c>
+      <c r="AE38" s="3">
+        <v>1862787</v>
+      </c>
+      <c r="AF38" s="3">
+        <v>1819810</v>
+      </c>
+      <c r="AG38" s="3">
+        <v>1812318</v>
+      </c>
+      <c r="AH38" s="3">
+        <v>1820529</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>9246191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="B39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="3">
+        <v>768252</v>
+      </c>
+      <c r="D39" s="3">
+        <v>103491</v>
+      </c>
+      <c r="E39" s="3">
+        <v>108659</v>
+      </c>
+      <c r="F39" s="3">
+        <v>109842</v>
+      </c>
+      <c r="G39" s="3">
+        <v>4806</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1095050</v>
+      </c>
+      <c r="I39" s="3">
+        <v>86754</v>
+      </c>
+      <c r="J39" s="3">
+        <v>133774</v>
+      </c>
+      <c r="K39" s="3">
+        <v>179197</v>
+      </c>
+      <c r="L39" s="3">
+        <v>240157</v>
+      </c>
+      <c r="M39" s="3">
+        <v>455169</v>
+      </c>
+      <c r="N39" s="3">
+        <v>1095050</v>
+      </c>
+      <c r="O39" s="3">
+        <v>92376</v>
+      </c>
+      <c r="P39" s="3">
+        <v>49084</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>43642</v>
+      </c>
+      <c r="R39" s="3">
+        <v>189347</v>
+      </c>
+      <c r="S39" s="3">
+        <v>88901</v>
+      </c>
+      <c r="T39" s="3">
+        <v>425133</v>
+      </c>
+      <c r="U39" s="3">
+        <v>206568</v>
+      </c>
+      <c r="V39" s="3">
+        <v>1095050</v>
+      </c>
+      <c r="W39" s="3">
+        <v>24660</v>
+      </c>
+      <c r="X39" s="3">
+        <v>168067</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>233478</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>269339</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>217887</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>181620</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>1095050</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>128423</v>
+      </c>
+      <c r="AE39" s="3">
+        <v>186847</v>
+      </c>
+      <c r="AF39" s="3">
+        <v>204786</v>
+      </c>
+      <c r="AG39" s="3">
+        <v>213125</v>
+      </c>
+      <c r="AH39" s="3">
+        <v>361869</v>
+      </c>
+      <c r="AI39" s="3">
+        <v>1095050</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="B40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="3">
+        <v>618822</v>
+      </c>
+      <c r="D40" s="3">
+        <v>67469</v>
+      </c>
+      <c r="E40" s="3">
+        <v>92694</v>
+      </c>
+      <c r="F40" s="3">
+        <v>104747</v>
+      </c>
+      <c r="G40" s="3">
+        <v>10324</v>
+      </c>
+      <c r="H40" s="3">
+        <v>894055</v>
+      </c>
+      <c r="I40" s="3">
+        <v>107764</v>
+      </c>
+      <c r="J40" s="3">
+        <v>129743</v>
+      </c>
+      <c r="K40" s="3">
+        <v>163330</v>
+      </c>
+      <c r="L40" s="3">
+        <v>200367</v>
+      </c>
+      <c r="M40" s="3">
+        <v>292851</v>
+      </c>
+      <c r="N40" s="3">
+        <v>894055</v>
+      </c>
+      <c r="O40" s="3">
+        <v>81471</v>
+      </c>
+      <c r="P40" s="3">
+        <v>47798</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>38608</v>
+      </c>
+      <c r="R40" s="3">
+        <v>154370</v>
+      </c>
+      <c r="S40" s="3">
+        <v>80399</v>
+      </c>
+      <c r="T40" s="3">
+        <v>333973</v>
+      </c>
+      <c r="U40" s="3">
+        <v>157437</v>
+      </c>
+      <c r="V40" s="3">
+        <v>894055</v>
+      </c>
+      <c r="W40" s="3">
+        <v>24025</v>
+      </c>
+      <c r="X40" s="3">
+        <v>132020</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>177737</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>211474</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>181794</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>167004</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>894055</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>114884</v>
+      </c>
+      <c r="AE40" s="3">
+        <v>157994</v>
+      </c>
+      <c r="AF40" s="3">
+        <v>172296</v>
+      </c>
+      <c r="AG40" s="3">
+        <v>187197</v>
+      </c>
+      <c r="AH40" s="3">
+        <v>261684</v>
+      </c>
+      <c r="AI40" s="3">
+        <v>894055</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="3">
+        <v>56068</v>
+      </c>
+      <c r="D41" s="3">
+        <v>8354</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10867</v>
+      </c>
+      <c r="F41" s="3">
+        <v>36188</v>
+      </c>
+      <c r="G41">
+        <v>941</v>
+      </c>
+      <c r="H41" s="3">
+        <v>112417</v>
+      </c>
+      <c r="I41" s="3">
+        <v>23337</v>
+      </c>
+      <c r="J41" s="3">
+        <v>26813</v>
+      </c>
+      <c r="K41" s="3">
+        <v>23380</v>
+      </c>
+      <c r="L41" s="3">
+        <v>19576</v>
+      </c>
+      <c r="M41" s="3">
+        <v>19311</v>
+      </c>
+      <c r="N41" s="3">
+        <v>112417</v>
+      </c>
+      <c r="O41" s="3">
+        <v>7218</v>
+      </c>
+      <c r="P41" s="3">
+        <v>13565</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>4673</v>
+      </c>
+      <c r="R41" s="3">
+        <v>11685</v>
+      </c>
+      <c r="S41" s="3">
+        <v>21063</v>
+      </c>
+      <c r="T41" s="3">
+        <v>33381</v>
+      </c>
+      <c r="U41" s="3">
+        <v>20832</v>
+      </c>
+      <c r="V41" s="3">
+        <v>112417</v>
+      </c>
+      <c r="W41" s="3">
+        <v>2235</v>
+      </c>
+      <c r="X41" s="3">
+        <v>12514</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>16988</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>18671</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>17983</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>44026</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>112417</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>18971</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>20344</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>24445</v>
+      </c>
+      <c r="AG41" s="3">
+        <v>24379</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>24277</v>
+      </c>
+      <c r="AI41" s="3">
+        <v>112417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="B42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="3">
+        <v>65776</v>
+      </c>
+      <c r="D42" s="3">
+        <v>6465</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2003</v>
+      </c>
+      <c r="F42" s="3">
+        <v>13056</v>
+      </c>
+      <c r="G42" s="3">
+        <v>2061</v>
+      </c>
+      <c r="H42" s="3">
+        <v>89362</v>
+      </c>
+      <c r="I42" s="3">
+        <v>22894</v>
+      </c>
+      <c r="J42" s="3">
+        <v>19396</v>
+      </c>
+      <c r="K42" s="3">
+        <v>18206</v>
+      </c>
+      <c r="L42" s="3">
+        <v>15483</v>
+      </c>
+      <c r="M42" s="3">
+        <v>13382</v>
+      </c>
+      <c r="N42" s="3">
+        <v>89362</v>
+      </c>
+      <c r="O42" s="3">
+        <v>2728</v>
+      </c>
+      <c r="P42">
+        <v>580</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>13435</v>
+      </c>
+      <c r="R42" s="3">
+        <v>2171</v>
+      </c>
+      <c r="S42">
+        <v>64</v>
+      </c>
+      <c r="T42" s="3">
+        <v>64543</v>
+      </c>
+      <c r="U42" s="3">
+        <v>5843</v>
+      </c>
+      <c r="V42" s="3">
+        <v>89362</v>
+      </c>
+      <c r="W42" s="3">
+        <v>3249</v>
+      </c>
+      <c r="X42" s="3">
+        <v>13132</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>34517</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>28805</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>7169</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>2490</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>89362</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>24233</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>23084</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>17818</v>
+      </c>
+      <c r="AG42" s="3">
+        <v>14222</v>
+      </c>
+      <c r="AH42" s="3">
+        <v>10005</v>
+      </c>
+      <c r="AI42" s="3">
+        <v>89362</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="3">
+        <v>27822</v>
+      </c>
+      <c r="D43" s="3">
+        <v>3329</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3756</v>
+      </c>
+      <c r="F43" s="3">
+        <v>36221</v>
+      </c>
+      <c r="G43">
+        <v>741</v>
+      </c>
+      <c r="H43" s="3">
+        <v>71869</v>
+      </c>
+      <c r="I43" s="3">
+        <v>24838</v>
+      </c>
+      <c r="J43" s="3">
+        <v>19704</v>
+      </c>
+      <c r="K43" s="3">
+        <v>13963</v>
+      </c>
+      <c r="L43" s="3">
+        <v>8394</v>
+      </c>
+      <c r="M43" s="3">
+        <v>4970</v>
+      </c>
+      <c r="N43" s="3">
+        <v>71869</v>
+      </c>
+      <c r="O43" s="3">
+        <v>7225</v>
+      </c>
+      <c r="P43" s="3">
+        <v>7863</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>6617</v>
+      </c>
+      <c r="R43" s="3">
+        <v>3097</v>
+      </c>
+      <c r="S43" s="3">
+        <v>10401</v>
+      </c>
+      <c r="T43" s="3">
+        <v>25558</v>
+      </c>
+      <c r="U43" s="3">
+        <v>11107</v>
+      </c>
+      <c r="V43" s="3">
+        <v>71869</v>
+      </c>
+      <c r="W43" s="3">
+        <v>1653</v>
+      </c>
+      <c r="X43" s="3">
+        <v>9501</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>15278</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>11090</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>10071</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>24275</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>71869</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>23791</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>15087</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>13644</v>
+      </c>
+      <c r="AG43" s="3">
+        <v>11687</v>
+      </c>
+      <c r="AH43" s="3">
+        <v>7661</v>
+      </c>
+      <c r="AI43" s="3">
+        <v>71869</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="B44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="3">
+        <v>5687223</v>
+      </c>
+      <c r="D44" s="3">
+        <v>760386</v>
+      </c>
+      <c r="E44" s="3">
+        <v>778381</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2171192</v>
+      </c>
+      <c r="G44" s="3">
+        <v>157135</v>
+      </c>
+      <c r="H44" s="3">
+        <v>9554316</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1992535</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1924537</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1881590</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1873133</v>
+      </c>
+      <c r="M44" s="3">
+        <v>1882523</v>
+      </c>
+      <c r="N44" s="3">
+        <v>9554316</v>
+      </c>
+      <c r="O44" s="3">
+        <v>1392661</v>
+      </c>
+      <c r="P44" s="3">
+        <v>1133813</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>495212</v>
+      </c>
+      <c r="R44" s="3">
+        <v>1445286</v>
+      </c>
+      <c r="S44" s="3">
+        <v>945741</v>
+      </c>
+      <c r="T44" s="3">
+        <v>2700337</v>
+      </c>
+      <c r="U44" s="3">
+        <v>1441269</v>
+      </c>
+      <c r="V44" s="3">
+        <v>9554317</v>
+      </c>
+      <c r="W44" s="3">
+        <v>306376</v>
+      </c>
+      <c r="X44" s="3">
+        <v>1560058</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>1728298</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>1834116</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>1659382</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>2466086</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>9554316</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>1992436</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>1924461</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>1881137</v>
+      </c>
+      <c r="AG44" s="3">
+        <v>1873974</v>
+      </c>
+      <c r="AH44" s="3">
+        <v>1882311</v>
+      </c>
+      <c r="AI44" s="3">
+        <v>9554317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="B46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="B47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="B48" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="B50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="B52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="B53" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="B56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="B58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="B60" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="B61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/e61 Projects/Fiscal sustainability/OECD comparison/Expenditure plots.xlsx
+++ b/e61 Projects/Fiscal sustainability/OECD comparison/Expenditure plots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\TVHENZ\e61 Projects\Fiscal sustainability\OECD comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CAE310-B1A8-47D7-8450-6A4EAA6EEEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308D8315-CA5E-4709-A952-62746C6830DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16000" yWindow="580" windowWidth="21370" windowHeight="19730" activeTab="3" xr2:uid="{23D87EDF-9DC9-40F8-8A7E-086D026245F5}"/>
+    <workbookView xWindow="16680" yWindow="1260" windowWidth="21370" windowHeight="19730" activeTab="3" xr2:uid="{23D87EDF-9DC9-40F8-8A7E-086D026245F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -462,10 +462,10 @@
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1022,37 +1022,37 @@
     <xf numFmtId="1" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -6070,8 +6070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77485CF6-9613-432D-8A63-5E033A7C8C95}">
   <dimension ref="A1:AI61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6967,7 +6967,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f t="shared" ref="A9:A72" si="0">A3+2</f>
+        <f t="shared" ref="A9:A61" si="0">A3+2</f>
         <v>2006</v>
       </c>
       <c r="B9" t="s">
@@ -10861,6 +10861,105 @@
       <c r="B45" t="s">
         <v>136</v>
       </c>
+      <c r="C45">
+        <v>829723</v>
+      </c>
+      <c r="D45">
+        <v>99260</v>
+      </c>
+      <c r="E45">
+        <v>120335</v>
+      </c>
+      <c r="F45">
+        <v>110047</v>
+      </c>
+      <c r="G45">
+        <v>6132</v>
+      </c>
+      <c r="H45">
+        <v>1165497</v>
+      </c>
+      <c r="I45">
+        <v>92609</v>
+      </c>
+      <c r="J45">
+        <v>143187</v>
+      </c>
+      <c r="K45">
+        <v>192508</v>
+      </c>
+      <c r="L45">
+        <v>252523</v>
+      </c>
+      <c r="M45">
+        <v>484670</v>
+      </c>
+      <c r="N45">
+        <v>1165497</v>
+      </c>
+      <c r="O45">
+        <v>98578</v>
+      </c>
+      <c r="P45">
+        <v>54221</v>
+      </c>
+      <c r="Q45">
+        <v>41356</v>
+      </c>
+      <c r="R45">
+        <v>200852</v>
+      </c>
+      <c r="S45">
+        <v>93847</v>
+      </c>
+      <c r="T45">
+        <v>460189</v>
+      </c>
+      <c r="U45">
+        <v>216455</v>
+      </c>
+      <c r="V45">
+        <v>1165497</v>
+      </c>
+      <c r="W45">
+        <v>23785</v>
+      </c>
+      <c r="X45">
+        <v>182416</v>
+      </c>
+      <c r="Y45">
+        <v>242847</v>
+      </c>
+      <c r="Z45">
+        <v>290456</v>
+      </c>
+      <c r="AA45">
+        <v>230368</v>
+      </c>
+      <c r="AB45">
+        <v>195626</v>
+      </c>
+      <c r="AC45">
+        <v>1165497</v>
+      </c>
+      <c r="AD45">
+        <v>134414</v>
+      </c>
+      <c r="AE45">
+        <v>202517</v>
+      </c>
+      <c r="AF45">
+        <v>213521</v>
+      </c>
+      <c r="AG45">
+        <v>231379</v>
+      </c>
+      <c r="AH45">
+        <v>383666</v>
+      </c>
+      <c r="AI45">
+        <v>1165497</v>
+      </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A46">
@@ -10870,6 +10969,105 @@
       <c r="B46" t="s">
         <v>137</v>
       </c>
+      <c r="C46">
+        <v>663413</v>
+      </c>
+      <c r="D46">
+        <v>71737</v>
+      </c>
+      <c r="E46">
+        <v>108124</v>
+      </c>
+      <c r="F46">
+        <v>106994</v>
+      </c>
+      <c r="G46">
+        <v>11197</v>
+      </c>
+      <c r="H46">
+        <v>961465</v>
+      </c>
+      <c r="I46">
+        <v>114677</v>
+      </c>
+      <c r="J46">
+        <v>137261</v>
+      </c>
+      <c r="K46">
+        <v>174586</v>
+      </c>
+      <c r="L46">
+        <v>214051</v>
+      </c>
+      <c r="M46">
+        <v>320890</v>
+      </c>
+      <c r="N46">
+        <v>961465</v>
+      </c>
+      <c r="O46">
+        <v>83641</v>
+      </c>
+      <c r="P46">
+        <v>53996</v>
+      </c>
+      <c r="Q46">
+        <v>40001</v>
+      </c>
+      <c r="R46">
+        <v>161117</v>
+      </c>
+      <c r="S46">
+        <v>90290</v>
+      </c>
+      <c r="T46">
+        <v>365918</v>
+      </c>
+      <c r="U46">
+        <v>166502</v>
+      </c>
+      <c r="V46">
+        <v>961465</v>
+      </c>
+      <c r="W46">
+        <v>23437</v>
+      </c>
+      <c r="X46">
+        <v>139421</v>
+      </c>
+      <c r="Y46">
+        <v>185065</v>
+      </c>
+      <c r="Z46">
+        <v>227464</v>
+      </c>
+      <c r="AA46">
+        <v>198480</v>
+      </c>
+      <c r="AB46">
+        <v>187598</v>
+      </c>
+      <c r="AC46">
+        <v>961465</v>
+      </c>
+      <c r="AD46">
+        <v>120442</v>
+      </c>
+      <c r="AE46">
+        <v>168366</v>
+      </c>
+      <c r="AF46">
+        <v>182240</v>
+      </c>
+      <c r="AG46">
+        <v>202508</v>
+      </c>
+      <c r="AH46">
+        <v>287908</v>
+      </c>
+      <c r="AI46">
+        <v>961465</v>
+      </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A47">
@@ -10879,6 +11077,105 @@
       <c r="B47" t="s">
         <v>133</v>
       </c>
+      <c r="C47">
+        <v>63406</v>
+      </c>
+      <c r="D47">
+        <v>9950</v>
+      </c>
+      <c r="E47">
+        <v>12524</v>
+      </c>
+      <c r="F47">
+        <v>39226</v>
+      </c>
+      <c r="G47">
+        <v>1364</v>
+      </c>
+      <c r="H47">
+        <v>126470</v>
+      </c>
+      <c r="I47">
+        <v>26928</v>
+      </c>
+      <c r="J47">
+        <v>30386</v>
+      </c>
+      <c r="K47">
+        <v>25907</v>
+      </c>
+      <c r="L47">
+        <v>21855</v>
+      </c>
+      <c r="M47">
+        <v>21395</v>
+      </c>
+      <c r="N47">
+        <v>126470</v>
+      </c>
+      <c r="O47">
+        <v>7974</v>
+      </c>
+      <c r="P47">
+        <v>15070</v>
+      </c>
+      <c r="Q47">
+        <v>5052</v>
+      </c>
+      <c r="R47">
+        <v>13001</v>
+      </c>
+      <c r="S47">
+        <v>22803</v>
+      </c>
+      <c r="T47">
+        <v>38590</v>
+      </c>
+      <c r="U47">
+        <v>23981</v>
+      </c>
+      <c r="V47">
+        <v>126470</v>
+      </c>
+      <c r="W47">
+        <v>2342</v>
+      </c>
+      <c r="X47">
+        <v>14541</v>
+      </c>
+      <c r="Y47">
+        <v>19112</v>
+      </c>
+      <c r="Z47">
+        <v>21928</v>
+      </c>
+      <c r="AA47">
+        <v>19863</v>
+      </c>
+      <c r="AB47">
+        <v>48684</v>
+      </c>
+      <c r="AC47">
+        <v>126470</v>
+      </c>
+      <c r="AD47">
+        <v>21781</v>
+      </c>
+      <c r="AE47">
+        <v>22423</v>
+      </c>
+      <c r="AF47">
+        <v>27932</v>
+      </c>
+      <c r="AG47">
+        <v>27874</v>
+      </c>
+      <c r="AH47">
+        <v>26459</v>
+      </c>
+      <c r="AI47">
+        <v>126470</v>
+      </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A48">
@@ -10888,8 +11185,107 @@
       <c r="B48" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C48">
+        <v>71520</v>
+      </c>
+      <c r="D48">
+        <v>6650</v>
+      </c>
+      <c r="E48">
+        <v>2324</v>
+      </c>
+      <c r="F48">
+        <v>14059</v>
+      </c>
+      <c r="G48">
+        <v>2803</v>
+      </c>
+      <c r="H48">
+        <v>97357</v>
+      </c>
+      <c r="I48">
+        <v>24402</v>
+      </c>
+      <c r="J48">
+        <v>21342</v>
+      </c>
+      <c r="K48">
+        <v>20262</v>
+      </c>
+      <c r="L48">
+        <v>17563</v>
+      </c>
+      <c r="M48">
+        <v>13788</v>
+      </c>
+      <c r="N48">
+        <v>97357</v>
+      </c>
+      <c r="O48">
+        <v>2790</v>
+      </c>
+      <c r="P48">
+        <v>592</v>
+      </c>
+      <c r="Q48">
+        <v>14782</v>
+      </c>
+      <c r="R48">
+        <v>2437</v>
+      </c>
+      <c r="S48">
+        <v>110</v>
+      </c>
+      <c r="T48">
+        <v>69887</v>
+      </c>
+      <c r="U48">
+        <v>6758</v>
+      </c>
+      <c r="V48">
+        <v>97357</v>
+      </c>
+      <c r="W48">
+        <v>3511</v>
+      </c>
+      <c r="X48">
+        <v>14631</v>
+      </c>
+      <c r="Y48">
+        <v>35466</v>
+      </c>
+      <c r="Z48">
+        <v>33195</v>
+      </c>
+      <c r="AA48">
+        <v>7537</v>
+      </c>
+      <c r="AB48">
+        <v>3017</v>
+      </c>
+      <c r="AC48">
+        <v>97357</v>
+      </c>
+      <c r="AD48">
+        <v>26336</v>
+      </c>
+      <c r="AE48">
+        <v>23775</v>
+      </c>
+      <c r="AF48">
+        <v>20668</v>
+      </c>
+      <c r="AG48">
+        <v>15680</v>
+      </c>
+      <c r="AH48">
+        <v>10898</v>
+      </c>
+      <c r="AI48">
+        <v>97357</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -10897,8 +11293,107 @@
       <c r="B49" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C49">
+        <v>31968</v>
+      </c>
+      <c r="D49">
+        <v>4034</v>
+      </c>
+      <c r="E49">
+        <v>3296</v>
+      </c>
+      <c r="F49">
+        <v>41083</v>
+      </c>
+      <c r="G49">
+        <v>944</v>
+      </c>
+      <c r="H49">
+        <v>81324</v>
+      </c>
+      <c r="I49">
+        <v>28589</v>
+      </c>
+      <c r="J49">
+        <v>25338</v>
+      </c>
+      <c r="K49">
+        <v>15073</v>
+      </c>
+      <c r="L49">
+        <v>7696</v>
+      </c>
+      <c r="M49">
+        <v>4628</v>
+      </c>
+      <c r="N49">
+        <v>81324</v>
+      </c>
+      <c r="O49">
+        <v>8771</v>
+      </c>
+      <c r="P49">
+        <v>7786</v>
+      </c>
+      <c r="Q49">
+        <v>8075</v>
+      </c>
+      <c r="R49">
+        <v>3131</v>
+      </c>
+      <c r="S49">
+        <v>9697</v>
+      </c>
+      <c r="T49">
+        <v>29652</v>
+      </c>
+      <c r="U49">
+        <v>14212</v>
+      </c>
+      <c r="V49">
+        <v>81324</v>
+      </c>
+      <c r="W49">
+        <v>1724</v>
+      </c>
+      <c r="X49">
+        <v>12208</v>
+      </c>
+      <c r="Y49">
+        <v>17741</v>
+      </c>
+      <c r="Z49">
+        <v>13025</v>
+      </c>
+      <c r="AA49">
+        <v>12240</v>
+      </c>
+      <c r="AB49">
+        <v>24385</v>
+      </c>
+      <c r="AC49">
+        <v>81324</v>
+      </c>
+      <c r="AD49">
+        <v>29157</v>
+      </c>
+      <c r="AE49">
+        <v>16966</v>
+      </c>
+      <c r="AF49">
+        <v>16382</v>
+      </c>
+      <c r="AG49">
+        <v>12904</v>
+      </c>
+      <c r="AH49">
+        <v>5915</v>
+      </c>
+      <c r="AI49">
+        <v>81324</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -10906,8 +11401,107 @@
       <c r="B50" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C50">
+        <v>6058601</v>
+      </c>
+      <c r="D50">
+        <v>726233</v>
+      </c>
+      <c r="E50">
+        <v>885252</v>
+      </c>
+      <c r="F50">
+        <v>2209953</v>
+      </c>
+      <c r="G50">
+        <v>136934</v>
+      </c>
+      <c r="H50">
+        <v>10016972</v>
+      </c>
+      <c r="I50">
+        <v>2084705</v>
+      </c>
+      <c r="J50">
+        <v>2017094</v>
+      </c>
+      <c r="K50">
+        <v>1973200</v>
+      </c>
+      <c r="L50">
+        <v>1966598</v>
+      </c>
+      <c r="M50">
+        <v>1975376</v>
+      </c>
+      <c r="N50">
+        <v>10016971</v>
+      </c>
+      <c r="O50">
+        <v>1468797</v>
+      </c>
+      <c r="P50">
+        <v>1234508</v>
+      </c>
+      <c r="Q50">
+        <v>593198</v>
+      </c>
+      <c r="R50">
+        <v>1525017</v>
+      </c>
+      <c r="S50">
+        <v>1049044</v>
+      </c>
+      <c r="T50">
+        <v>2740145</v>
+      </c>
+      <c r="U50">
+        <v>1406265</v>
+      </c>
+      <c r="V50">
+        <v>10016972</v>
+      </c>
+      <c r="W50">
+        <v>320069</v>
+      </c>
+      <c r="X50">
+        <v>1576802</v>
+      </c>
+      <c r="Y50">
+        <v>1872495</v>
+      </c>
+      <c r="Z50">
+        <v>1846126</v>
+      </c>
+      <c r="AA50">
+        <v>1751042</v>
+      </c>
+      <c r="AB50">
+        <v>2650439</v>
+      </c>
+      <c r="AC50">
+        <v>10016973</v>
+      </c>
+      <c r="AD50">
+        <v>2085594</v>
+      </c>
+      <c r="AE50">
+        <v>2016855</v>
+      </c>
+      <c r="AF50">
+        <v>1972755</v>
+      </c>
+      <c r="AG50">
+        <v>1966710</v>
+      </c>
+      <c r="AH50">
+        <v>1975060</v>
+      </c>
+      <c r="AI50">
+        <v>10016972</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -10915,8 +11509,107 @@
       <c r="B51" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C51">
+        <v>913601</v>
+      </c>
+      <c r="D51">
+        <v>99329</v>
+      </c>
+      <c r="E51">
+        <v>139232</v>
+      </c>
+      <c r="F51">
+        <v>125501</v>
+      </c>
+      <c r="G51">
+        <v>5282</v>
+      </c>
+      <c r="H51">
+        <v>1282944</v>
+      </c>
+      <c r="I51">
+        <v>104761</v>
+      </c>
+      <c r="J51">
+        <v>161413</v>
+      </c>
+      <c r="K51">
+        <v>213172</v>
+      </c>
+      <c r="L51">
+        <v>278592</v>
+      </c>
+      <c r="M51">
+        <v>525006</v>
+      </c>
+      <c r="N51">
+        <v>1282944</v>
+      </c>
+      <c r="O51">
+        <v>114042</v>
+      </c>
+      <c r="P51">
+        <v>62876</v>
+      </c>
+      <c r="Q51">
+        <v>54998</v>
+      </c>
+      <c r="R51">
+        <v>229606</v>
+      </c>
+      <c r="S51">
+        <v>113424</v>
+      </c>
+      <c r="T51">
+        <v>488777</v>
+      </c>
+      <c r="U51">
+        <v>219223</v>
+      </c>
+      <c r="V51">
+        <v>1282944</v>
+      </c>
+      <c r="W51">
+        <v>26602</v>
+      </c>
+      <c r="X51">
+        <v>195827</v>
+      </c>
+      <c r="Y51">
+        <v>274817</v>
+      </c>
+      <c r="Z51">
+        <v>299433</v>
+      </c>
+      <c r="AA51">
+        <v>261056</v>
+      </c>
+      <c r="AB51">
+        <v>225209</v>
+      </c>
+      <c r="AC51">
+        <v>1282944</v>
+      </c>
+      <c r="AD51">
+        <v>151347</v>
+      </c>
+      <c r="AE51">
+        <v>222857</v>
+      </c>
+      <c r="AF51">
+        <v>237603</v>
+      </c>
+      <c r="AG51">
+        <v>252864</v>
+      </c>
+      <c r="AH51">
+        <v>418274</v>
+      </c>
+      <c r="AI51">
+        <v>1282944</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -10924,8 +11617,107 @@
       <c r="B52" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C52">
+        <v>677349</v>
+      </c>
+      <c r="D52">
+        <v>66044</v>
+      </c>
+      <c r="E52">
+        <v>117781</v>
+      </c>
+      <c r="F52">
+        <v>107521</v>
+      </c>
+      <c r="G52">
+        <v>9559</v>
+      </c>
+      <c r="H52">
+        <v>978255</v>
+      </c>
+      <c r="I52">
+        <v>117884</v>
+      </c>
+      <c r="J52">
+        <v>140623</v>
+      </c>
+      <c r="K52">
+        <v>178464</v>
+      </c>
+      <c r="L52">
+        <v>216746</v>
+      </c>
+      <c r="M52">
+        <v>324539</v>
+      </c>
+      <c r="N52">
+        <v>978255</v>
+      </c>
+      <c r="O52">
+        <v>86515</v>
+      </c>
+      <c r="P52">
+        <v>58725</v>
+      </c>
+      <c r="Q52">
+        <v>47341</v>
+      </c>
+      <c r="R52">
+        <v>165800</v>
+      </c>
+      <c r="S52">
+        <v>99229</v>
+      </c>
+      <c r="T52">
+        <v>361619</v>
+      </c>
+      <c r="U52">
+        <v>159025</v>
+      </c>
+      <c r="V52">
+        <v>978255</v>
+      </c>
+      <c r="W52">
+        <v>23617</v>
+      </c>
+      <c r="X52">
+        <v>136551</v>
+      </c>
+      <c r="Y52">
+        <v>194633</v>
+      </c>
+      <c r="Z52">
+        <v>221351</v>
+      </c>
+      <c r="AA52">
+        <v>203803</v>
+      </c>
+      <c r="AB52">
+        <v>198300</v>
+      </c>
+      <c r="AC52">
+        <v>978255</v>
+      </c>
+      <c r="AD52">
+        <v>123052</v>
+      </c>
+      <c r="AE52">
+        <v>170382</v>
+      </c>
+      <c r="AF52">
+        <v>184554</v>
+      </c>
+      <c r="AG52">
+        <v>207126</v>
+      </c>
+      <c r="AH52">
+        <v>293142</v>
+      </c>
+      <c r="AI52">
+        <v>978255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -10933,8 +11725,107 @@
       <c r="B53" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C53">
+        <v>70768</v>
+      </c>
+      <c r="D53">
+        <v>11009</v>
+      </c>
+      <c r="E53">
+        <v>13281</v>
+      </c>
+      <c r="F53">
+        <v>44531</v>
+      </c>
+      <c r="G53">
+        <v>1402</v>
+      </c>
+      <c r="H53">
+        <v>140991</v>
+      </c>
+      <c r="I53">
+        <v>29436</v>
+      </c>
+      <c r="J53">
+        <v>33478</v>
+      </c>
+      <c r="K53">
+        <v>29118</v>
+      </c>
+      <c r="L53">
+        <v>24990</v>
+      </c>
+      <c r="M53">
+        <v>23970</v>
+      </c>
+      <c r="N53">
+        <v>140991</v>
+      </c>
+      <c r="O53">
+        <v>9109</v>
+      </c>
+      <c r="P53">
+        <v>16576</v>
+      </c>
+      <c r="Q53">
+        <v>5953</v>
+      </c>
+      <c r="R53">
+        <v>15009</v>
+      </c>
+      <c r="S53">
+        <v>25772</v>
+      </c>
+      <c r="T53">
+        <v>42220</v>
+      </c>
+      <c r="U53">
+        <v>26352</v>
+      </c>
+      <c r="V53">
+        <v>140991</v>
+      </c>
+      <c r="W53">
+        <v>2878</v>
+      </c>
+      <c r="X53">
+        <v>16171</v>
+      </c>
+      <c r="Y53">
+        <v>21616</v>
+      </c>
+      <c r="Z53">
+        <v>24039</v>
+      </c>
+      <c r="AA53">
+        <v>22552</v>
+      </c>
+      <c r="AB53">
+        <v>53735</v>
+      </c>
+      <c r="AC53">
+        <v>140991</v>
+      </c>
+      <c r="AD53">
+        <v>24080</v>
+      </c>
+      <c r="AE53">
+        <v>25331</v>
+      </c>
+      <c r="AF53">
+        <v>30628</v>
+      </c>
+      <c r="AG53">
+        <v>30926</v>
+      </c>
+      <c r="AH53">
+        <v>30027</v>
+      </c>
+      <c r="AI53">
+        <v>140991</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -10942,8 +11833,107 @@
       <c r="B54" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C54">
+        <v>79518</v>
+      </c>
+      <c r="D54">
+        <v>7560</v>
+      </c>
+      <c r="E54">
+        <v>2587</v>
+      </c>
+      <c r="F54">
+        <v>16048</v>
+      </c>
+      <c r="G54">
+        <v>2954</v>
+      </c>
+      <c r="H54">
+        <v>108667</v>
+      </c>
+      <c r="I54">
+        <v>26986</v>
+      </c>
+      <c r="J54">
+        <v>23693</v>
+      </c>
+      <c r="K54">
+        <v>22571</v>
+      </c>
+      <c r="L54">
+        <v>19301</v>
+      </c>
+      <c r="M54">
+        <v>16116</v>
+      </c>
+      <c r="N54">
+        <v>108667</v>
+      </c>
+      <c r="O54">
+        <v>3118</v>
+      </c>
+      <c r="P54">
+        <v>680</v>
+      </c>
+      <c r="Q54">
+        <v>16604</v>
+      </c>
+      <c r="R54">
+        <v>2874</v>
+      </c>
+      <c r="S54">
+        <v>101</v>
+      </c>
+      <c r="T54">
+        <v>77706</v>
+      </c>
+      <c r="U54">
+        <v>7583</v>
+      </c>
+      <c r="V54">
+        <v>108667</v>
+      </c>
+      <c r="W54">
+        <v>4106</v>
+      </c>
+      <c r="X54">
+        <v>16217</v>
+      </c>
+      <c r="Y54">
+        <v>41375</v>
+      </c>
+      <c r="Z54">
+        <v>35569</v>
+      </c>
+      <c r="AA54">
+        <v>8361</v>
+      </c>
+      <c r="AB54">
+        <v>3039</v>
+      </c>
+      <c r="AC54">
+        <v>108667</v>
+      </c>
+      <c r="AD54">
+        <v>29160</v>
+      </c>
+      <c r="AE54">
+        <v>27923</v>
+      </c>
+      <c r="AF54">
+        <v>22363</v>
+      </c>
+      <c r="AG54">
+        <v>16973</v>
+      </c>
+      <c r="AH54">
+        <v>12248</v>
+      </c>
+      <c r="AI54">
+        <v>108667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -10951,8 +11941,107 @@
       <c r="B55" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C55">
+        <v>36164</v>
+      </c>
+      <c r="D55">
+        <v>5056</v>
+      </c>
+      <c r="E55">
+        <v>4684</v>
+      </c>
+      <c r="F55">
+        <v>48243</v>
+      </c>
+      <c r="G55">
+        <v>1036</v>
+      </c>
+      <c r="H55">
+        <v>95182</v>
+      </c>
+      <c r="I55">
+        <v>33313</v>
+      </c>
+      <c r="J55">
+        <v>27919</v>
+      </c>
+      <c r="K55">
+        <v>17808</v>
+      </c>
+      <c r="L55">
+        <v>10294</v>
+      </c>
+      <c r="M55">
+        <v>5849</v>
+      </c>
+      <c r="N55">
+        <v>95182</v>
+      </c>
+      <c r="O55">
+        <v>9591</v>
+      </c>
+      <c r="P55">
+        <v>10212</v>
+      </c>
+      <c r="Q55">
+        <v>9574</v>
+      </c>
+      <c r="R55">
+        <v>4022</v>
+      </c>
+      <c r="S55">
+        <v>13394</v>
+      </c>
+      <c r="T55">
+        <v>32565</v>
+      </c>
+      <c r="U55">
+        <v>15824</v>
+      </c>
+      <c r="V55">
+        <v>95182</v>
+      </c>
+      <c r="W55">
+        <v>2153</v>
+      </c>
+      <c r="X55">
+        <v>13418</v>
+      </c>
+      <c r="Y55">
+        <v>19845</v>
+      </c>
+      <c r="Z55">
+        <v>14589</v>
+      </c>
+      <c r="AA55">
+        <v>13767</v>
+      </c>
+      <c r="AB55">
+        <v>31410</v>
+      </c>
+      <c r="AC55">
+        <v>95182</v>
+      </c>
+      <c r="AD55">
+        <v>32092</v>
+      </c>
+      <c r="AE55">
+        <v>19919</v>
+      </c>
+      <c r="AF55">
+        <v>18349</v>
+      </c>
+      <c r="AG55">
+        <v>15519</v>
+      </c>
+      <c r="AH55">
+        <v>9303</v>
+      </c>
+      <c r="AI55">
+        <v>95182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>2022</v>
@@ -10960,8 +12049,47 @@
       <c r="B56" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="I56">
+        <v>2120763</v>
+      </c>
+      <c r="J56">
+        <v>2053160</v>
+      </c>
+      <c r="K56">
+        <v>2009268</v>
+      </c>
+      <c r="L56">
+        <v>2002656</v>
+      </c>
+      <c r="M56">
+        <v>2011453</v>
+      </c>
+      <c r="N56">
+        <v>10197302</v>
+      </c>
+      <c r="W56">
+        <v>325399</v>
+      </c>
+      <c r="X56">
+        <v>1605579</v>
+      </c>
+      <c r="Y56">
+        <v>1906851</v>
+      </c>
+      <c r="Z56">
+        <v>1879968</v>
+      </c>
+      <c r="AA56">
+        <v>1783109</v>
+      </c>
+      <c r="AB56">
+        <v>2696399</v>
+      </c>
+      <c r="AC56">
+        <v>10197304</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>2022</v>
@@ -10969,8 +12097,47 @@
       <c r="B57" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="I57">
+        <v>114806</v>
+      </c>
+      <c r="J57">
+        <v>177987</v>
+      </c>
+      <c r="K57">
+        <v>236079</v>
+      </c>
+      <c r="L57">
+        <v>309279</v>
+      </c>
+      <c r="M57">
+        <v>579924</v>
+      </c>
+      <c r="N57">
+        <v>1418075</v>
+      </c>
+      <c r="W57">
+        <v>28863</v>
+      </c>
+      <c r="X57">
+        <v>213480</v>
+      </c>
+      <c r="Y57">
+        <v>304677</v>
+      </c>
+      <c r="Z57">
+        <v>335865</v>
+      </c>
+      <c r="AA57">
+        <v>288988</v>
+      </c>
+      <c r="AB57">
+        <v>246202</v>
+      </c>
+      <c r="AC57">
+        <v>1418075</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>2022</v>
@@ -10978,8 +12145,47 @@
       <c r="B58" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="I58">
+        <v>127041</v>
+      </c>
+      <c r="J58">
+        <v>152572</v>
+      </c>
+      <c r="K58">
+        <v>194138</v>
+      </c>
+      <c r="L58">
+        <v>235905</v>
+      </c>
+      <c r="M58">
+        <v>356101</v>
+      </c>
+      <c r="N58">
+        <v>1065758</v>
+      </c>
+      <c r="W58">
+        <v>25886</v>
+      </c>
+      <c r="X58">
+        <v>149250</v>
+      </c>
+      <c r="Y58">
+        <v>212062</v>
+      </c>
+      <c r="Z58">
+        <v>241807</v>
+      </c>
+      <c r="AA58">
+        <v>221678</v>
+      </c>
+      <c r="AB58">
+        <v>215075</v>
+      </c>
+      <c r="AC58">
+        <v>1065758</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>2022</v>
@@ -10987,8 +12193,47 @@
       <c r="B59" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="I59">
+        <v>35097</v>
+      </c>
+      <c r="J59">
+        <v>40030</v>
+      </c>
+      <c r="K59">
+        <v>34826</v>
+      </c>
+      <c r="L59">
+        <v>29639</v>
+      </c>
+      <c r="M59">
+        <v>28856</v>
+      </c>
+      <c r="N59">
+        <v>168447</v>
+      </c>
+      <c r="W59">
+        <v>3288</v>
+      </c>
+      <c r="X59">
+        <v>19159</v>
+      </c>
+      <c r="Y59">
+        <v>25582</v>
+      </c>
+      <c r="Z59">
+        <v>28676</v>
+      </c>
+      <c r="AA59">
+        <v>26897</v>
+      </c>
+      <c r="AB59">
+        <v>64846</v>
+      </c>
+      <c r="AC59">
+        <v>168447</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>2022</v>
@@ -10996,14 +12241,92 @@
       <c r="B60" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="I60">
+        <v>29656</v>
+      </c>
+      <c r="J60">
+        <v>25699</v>
+      </c>
+      <c r="K60">
+        <v>24337</v>
+      </c>
+      <c r="L60">
+        <v>20869</v>
+      </c>
+      <c r="M60">
+        <v>17274</v>
+      </c>
+      <c r="N60">
+        <v>117834</v>
+      </c>
+      <c r="W60">
+        <v>4330</v>
+      </c>
+      <c r="X60">
+        <v>17540</v>
+      </c>
+      <c r="Y60">
+        <v>44438</v>
+      </c>
+      <c r="Z60">
+        <v>38912</v>
+      </c>
+      <c r="AA60">
+        <v>9216</v>
+      </c>
+      <c r="AB60">
+        <v>3398</v>
+      </c>
+      <c r="AC60">
+        <v>117834</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
       <c r="B61" t="s">
         <v>106</v>
+      </c>
+      <c r="I61">
+        <v>38802</v>
+      </c>
+      <c r="J61">
+        <v>32574</v>
+      </c>
+      <c r="K61">
+        <v>21000</v>
+      </c>
+      <c r="L61">
+        <v>11842</v>
+      </c>
+      <c r="M61">
+        <v>6948</v>
+      </c>
+      <c r="N61">
+        <v>111167</v>
+      </c>
+      <c r="W61">
+        <v>2476</v>
+      </c>
+      <c r="X61">
+        <v>15686</v>
+      </c>
+      <c r="Y61">
+        <v>23687</v>
+      </c>
+      <c r="Z61">
+        <v>17333</v>
+      </c>
+      <c r="AA61">
+        <v>16130</v>
+      </c>
+      <c r="AB61">
+        <v>35856</v>
+      </c>
+      <c r="AC61">
+        <v>111167</v>
       </c>
     </row>
   </sheetData>
